--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/4_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/4_455-55R22.xlsx
@@ -1151,100 +1151,100 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.05450982865424624</v>
+        <v>0.05276390914527462</v>
       </c>
       <c r="BE2">
-        <v>0.1563144517545752</v>
+        <v>0.13263140754535</v>
       </c>
       <c r="BF2">
-        <v>0.2478311176875075</v>
+        <v>0.2044278245192181</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.004076325515937876</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.009853183729587992</v>
       </c>
       <c r="BI2">
-        <v>0.06675748055457717</v>
+        <v>0.06237240519157253</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.003986742528243948</v>
       </c>
       <c r="BK2">
-        <v>0.0569921801149857</v>
+        <v>0.05471135706346638</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.009476673951119924</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>6.207647434862428E-05</v>
       </c>
       <c r="BN2">
-        <v>0.007657584637722158</v>
+        <v>0.01600750840361138</v>
       </c>
       <c r="BO2">
-        <v>0.03116102428289033</v>
+        <v>0.03444636580605749</v>
       </c>
       <c r="BP2">
-        <v>0.03939666829488105</v>
+        <v>0.04090737184802312</v>
       </c>
       <c r="BQ2">
-        <v>0.03596475444209879</v>
+        <v>0.03821497570923325</v>
       </c>
       <c r="BR2">
-        <v>0.03775624467746688</v>
+        <v>0.03962043097393182</v>
       </c>
       <c r="BS2">
-        <v>0.1067970411194569</v>
+        <v>0.09378413721285551</v>
       </c>
       <c r="BT2">
-        <v>0.02616988275925463</v>
+        <v>0.0305307284262042</v>
       </c>
       <c r="BU2">
-        <v>0.09906917379006581</v>
+        <v>0.08772149081458856</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.0003191817863678154</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.0008690216498779605</v>
       </c>
       <c r="BX2">
-        <v>0.01030361104139364</v>
+        <v>0.01808336216276258</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>0.005420146587021305</v>
       </c>
       <c r="BZ2">
-        <v>0.003885165472771558</v>
+        <v>0.01304797992203959</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>0.001386974462317664</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>0.00194472334651579</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>9.835492195225721E-05</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>0.007842113959156361</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>0.006544119716106539</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>8.148608609632706E-06</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>0.003292513481883374</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>0.0003022975381506978</v>
       </c>
       <c r="CI2">
-        <v>0.01943379071610629</v>
+        <v>0.0252461469986131</v>
       </c>
     </row>
     <row r="3" spans="1:87">
@@ -1411,100 +1411,100 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.009690839874556101</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.006658617015725104</v>
       </c>
       <c r="BE3">
-        <v>0.003343278705746478</v>
+        <v>0.01261518616795881</v>
       </c>
       <c r="BF3">
-        <v>0.1399353623404185</v>
+        <v>0.1194605195109681</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>0.00557213941138065</v>
       </c>
       <c r="BH3">
-        <v>0.0711741508608054</v>
+        <v>0.06567398689420136</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>0.001449927234085795</v>
       </c>
       <c r="BJ3">
-        <v>0.2329218688868863</v>
+        <v>0.1921966109738657</v>
       </c>
       <c r="BK3">
-        <v>0.02893196091764999</v>
+        <v>0.03263121643843612</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>0.007986744992183121</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.001308901896460732</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>0.002555273314069962</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.001061089380444823</v>
       </c>
       <c r="BP3">
-        <v>0.08727354110963743</v>
+        <v>0.07826728419213506</v>
       </c>
       <c r="BQ3">
-        <v>0.1860434874975374</v>
+        <v>0.1555273095557687</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.005334436732933191</v>
       </c>
       <c r="BS3">
-        <v>0.02037671443830526</v>
+        <v>0.02593911439567055</v>
       </c>
       <c r="BT3">
-        <v>0.01812477024476222</v>
+        <v>0.02417759409649645</v>
       </c>
       <c r="BU3">
-        <v>0.1192637352341775</v>
+        <v>0.103290717937284</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>0.002621678167862252</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>0.006669031926610382</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.0005780728937584882</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>0.00468222790503272</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>4.649415106764973E-05</v>
       </c>
       <c r="CA3">
-        <v>0.0122233021621444</v>
+        <v>0.01956133590845329</v>
       </c>
       <c r="CB3">
-        <v>0</v>
+        <v>6.91862909343827E-05</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>0.006554911190200088</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>0.008664507502715829</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>0.006273916473143293</v>
       </c>
       <c r="CF3">
-        <v>0.01065696724912368</v>
+        <v>0.01833611427440824</v>
       </c>
       <c r="CG3">
-        <v>0.01870394739647138</v>
+        <v>0.02463063920857286</v>
       </c>
       <c r="CH3">
-        <v>0.05102691295633416</v>
+        <v>0.04991437409261638</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -1671,100 +1671,100 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.2848535686402829</v>
+        <v>0.2353726106009148</v>
       </c>
       <c r="BC4">
-        <v>0.1111326531420197</v>
+        <v>0.09792677683898601</v>
       </c>
       <c r="BD4">
-        <v>0.03890634940337882</v>
+        <v>0.04078222111046718</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.002627867866654481</v>
       </c>
       <c r="BF4">
-        <v>0.1509968043611965</v>
+        <v>0.1294667988669389</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.0001079763802686579</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.0003973070717128151</v>
       </c>
       <c r="BI4">
-        <v>0.003937466853788869</v>
+        <v>0.01311527494013454</v>
       </c>
       <c r="BJ4">
-        <v>0.001409398796874491</v>
+        <v>0.01111509884796463</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>7.606852286582775E-06</v>
       </c>
       <c r="BL4">
-        <v>0.1918678637820084</v>
+        <v>0.161803474175808</v>
       </c>
       <c r="BM4">
-        <v>0.03657774103771488</v>
+        <v>0.03893985505220816</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.001800144295328848</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.001607670500480714</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.006768299920237721</v>
       </c>
       <c r="BQ4">
-        <v>0.02471426667032641</v>
+        <v>0.02955362126992487</v>
       </c>
       <c r="BR4">
-        <v>0.01949337936507862</v>
+        <v>0.02542291998626725</v>
       </c>
       <c r="BS4">
-        <v>0.07348160636002976</v>
+        <v>0.06813773559362293</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.001737015795079958</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.001283902613542187</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.003304215673478588</v>
       </c>
       <c r="BW4">
-        <v>0.005329564916530762</v>
+        <v>0.01421668566182647</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.003424848554280053</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>0.003792290071012146</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.005472094817698766</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>0.005891110409382993</v>
       </c>
       <c r="CB4">
-        <v>0.009023049557106293</v>
+        <v>0.01713892490086535</v>
       </c>
       <c r="CC4">
-        <v>0.001301992190057215</v>
+        <v>0.01103012007276535</v>
       </c>
       <c r="CD4">
-        <v>0.02202936818182381</v>
+        <v>0.02742936288537778</v>
       </c>
       <c r="CE4">
-        <v>0.006402135113651874</v>
+        <v>0.01506528989919582</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>0.00059005171679281</v>
       </c>
       <c r="CG4">
-        <v>0.01854279162813063</v>
+        <v>0.02467082675849476</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -1934,100 +1934,100 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.3086488216535676</v>
+        <v>0.2579346693242396</v>
       </c>
       <c r="BC5">
-        <v>0.1091630792187044</v>
+        <v>0.09768966556717905</v>
       </c>
       <c r="BD5">
-        <v>0.07125084570136453</v>
+        <v>0.06723512817381928</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.001814835495625145</v>
       </c>
       <c r="BF5">
-        <v>0.08915866038591584</v>
+        <v>0.08162030576285761</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.0005619384478226569</v>
       </c>
       <c r="BH5">
-        <v>0.04355059393256044</v>
+        <v>0.0449837788062678</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.0003190044009269333</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.007932427479286651</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.004950418486721776</v>
       </c>
       <c r="BL5">
-        <v>0.03470785599903846</v>
+        <v>0.03788049134279097</v>
       </c>
       <c r="BM5">
-        <v>0.02162440409604045</v>
+        <v>0.02737067859245964</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.00228720910842952</v>
       </c>
       <c r="BO5">
-        <v>0.08858310405681452</v>
+        <v>0.08115796682578116</v>
       </c>
       <c r="BP5">
-        <v>0.03324894112349596</v>
+        <v>0.03670855886852467</v>
       </c>
       <c r="BQ5">
-        <v>0.002940488548320609</v>
+        <v>0.01236206654531758</v>
       </c>
       <c r="BR5">
-        <v>0.107252109850328</v>
+        <v>0.09615460200886444</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.005549640964226001</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.003762890371986312</v>
       </c>
       <c r="BU5">
-        <v>0.003581498214129987</v>
+        <v>0.0128769835266125</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.0004629695485763428</v>
       </c>
       <c r="BW5">
-        <v>0.02635124546290152</v>
+        <v>0.03116770540423295</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.0002978135421446336</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.004661075431485659</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>1.285593605738817E-05</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.002678644016168069</v>
       </c>
       <c r="CB5">
-        <v>0.00826509214670431</v>
+        <v>0.01663927008484601</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>6.847476169831461E-05</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>0.001610857225607184</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>0.0001757604152292403</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>0.009562674474128098</v>
       </c>
       <c r="CG5">
-        <v>0.05167325961011354</v>
+        <v>0.05150863906008694</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -2197,100 +2197,100 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.1666002112624654</v>
+        <v>0.1394448729028393</v>
       </c>
       <c r="BC6">
-        <v>0.02151938067832306</v>
+        <v>0.02672010783026495</v>
       </c>
       <c r="BD6">
-        <v>0.4593131135109963</v>
+        <v>0.3668766639039282</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>7.973577157212497E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0107134115422798</v>
+        <v>0.01832409625976663</v>
       </c>
       <c r="BG6">
-        <v>0.0435124696776102</v>
+        <v>0.04380827709896115</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>0.0008891271449983351</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.004952284250725096</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>0.001692216317525234</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.001719349739169872</v>
       </c>
       <c r="BL6">
-        <v>0.006252853596018612</v>
+        <v>0.01485833621027974</v>
       </c>
       <c r="BM6">
-        <v>0.04227963889809652</v>
+        <v>0.04285039341828895</v>
       </c>
       <c r="BN6">
-        <v>0.03187152123039663</v>
+        <v>0.03476350410137999</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.00612207196355704</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.008143388478910914</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.005862383436362331</v>
       </c>
       <c r="BR6">
-        <v>0.01549428514476634</v>
+        <v>0.02203873486165559</v>
       </c>
       <c r="BS6">
-        <v>0.04628686244428427</v>
+        <v>0.04596392213892391</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.009158571850552594</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>0.0004824815007803561</v>
       </c>
       <c r="BV6">
-        <v>0.07164495475147234</v>
+        <v>0.06566662846137357</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>6.163710096359811E-07</v>
       </c>
       <c r="BX6">
-        <v>0.03950624300914671</v>
+        <v>0.04069552293142753</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>0.002029007733192447</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>0.008033969156981371</v>
       </c>
       <c r="CA6">
-        <v>0.005269952522948645</v>
+        <v>0.01409464267402628</v>
       </c>
       <c r="CB6">
-        <v>0.0282568471611194</v>
+        <v>0.03195497809809876</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>0.0002080155512540145</v>
       </c>
       <c r="CD6">
-        <v>0.003241155302788825</v>
+        <v>0.01251830974912086</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>0.003647736577761053</v>
       </c>
       <c r="CF6">
-        <v>0.005957981420148195</v>
+        <v>0.01462922670892385</v>
       </c>
       <c r="CG6">
-        <v>0.002279117847138778</v>
+        <v>0.01177082680638796</v>
       </c>
       <c r="CH6">
         <v>0</v>
@@ -2460,100 +2460,100 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.1723214119879998</v>
+        <v>0.1428117980397744</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>0.004447352966812587</v>
       </c>
       <c r="BD7">
-        <v>0.2977373921743091</v>
+        <v>0.2394725765193774</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>0.004631925931183804</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>6.656556140963629E-06</v>
       </c>
       <c r="BG7">
-        <v>0.07174824093711142</v>
+        <v>0.06529790392915479</v>
       </c>
       <c r="BH7">
-        <v>0.003278347106327862</v>
+        <v>0.01252669223613497</v>
       </c>
       <c r="BI7">
-        <v>0.01007857468962699</v>
+        <v>0.01776777308614867</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>0.00356040400876691</v>
       </c>
       <c r="BK7">
-        <v>0.05853776280206673</v>
+        <v>0.05511630586865032</v>
       </c>
       <c r="BL7">
-        <v>0.01986317071735249</v>
+        <v>0.02530897052959554</v>
       </c>
       <c r="BM7">
-        <v>0.06473798081101173</v>
+        <v>0.05989494650597239</v>
       </c>
       <c r="BN7">
-        <v>0.002746693783117168</v>
+        <v>0.0121169356482865</v>
       </c>
       <c r="BO7">
-        <v>0.04760150895157953</v>
+        <v>0.04668750110813826</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>0.002534407690987758</v>
       </c>
       <c r="BQ7">
-        <v>0.1188387526728831</v>
+        <v>0.1015915685532379</v>
       </c>
       <c r="BR7">
-        <v>0.014362005010892</v>
+        <v>0.02106910445398188</v>
       </c>
       <c r="BS7">
-        <v>0.04781018350853749</v>
+        <v>0.0468483310525718</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>0.001416684731504563</v>
       </c>
       <c r="BU7">
-        <v>0</v>
+        <v>0.00125696335593792</v>
       </c>
       <c r="BV7">
-        <v>0.01033700892817558</v>
+        <v>0.0179669538815049</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>0.006248753974747751</v>
       </c>
       <c r="BX7">
-        <v>0.005234333871231698</v>
+        <v>0.01403421307287795</v>
       </c>
       <c r="BY7">
-        <v>0</v>
+        <v>0.002882576596642171</v>
       </c>
       <c r="BZ7">
-        <v>0</v>
+        <v>0.006594605550779466</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>0.0002432484772797732</v>
       </c>
       <c r="CB7">
-        <v>0.01788643794539929</v>
+        <v>0.0237854603014787</v>
       </c>
       <c r="CC7">
-        <v>0.007258888913547185</v>
+        <v>0.01559458094764406</v>
       </c>
       <c r="CD7">
-        <v>0</v>
+        <v>9.826924525903468E-05</v>
       </c>
       <c r="CE7">
-        <v>0.009868571321640941</v>
+        <v>0.01760591899863355</v>
       </c>
       <c r="CF7">
-        <v>0</v>
+        <v>0.005356761693776175</v>
       </c>
       <c r="CG7">
-        <v>0.01975273386718977</v>
+        <v>0.02522385448701702</v>
       </c>
       <c r="CH7">
         <v>0</v>
@@ -2723,100 +2723,100 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0.2296836470166916</v>
+        <v>0.1922585216915388</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>9.416802983482351E-05</v>
       </c>
       <c r="BD8">
-        <v>0.1979058642969899</v>
+        <v>0.1670422218967744</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>0.005665977710323012</v>
       </c>
       <c r="BF8">
-        <v>0</v>
+        <v>0.000257815864618365</v>
       </c>
       <c r="BG8">
-        <v>0.05304815061128954</v>
+        <v>0.05209475787443024</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>0.007149569619548089</v>
       </c>
       <c r="BI8">
-        <v>0.01398086111325289</v>
+        <v>0.0210940901173126</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.0013064425301269</v>
       </c>
       <c r="BK8">
-        <v>0.06458462938265071</v>
+        <v>0.06124918220417499</v>
       </c>
       <c r="BL8">
-        <v>0.04968221435299704</v>
+        <v>0.04942382080723991</v>
       </c>
       <c r="BM8">
-        <v>0.0792154743290347</v>
+        <v>0.07285904736289166</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>0.008774163087118807</v>
       </c>
       <c r="BO8">
-        <v>0.0433773966155587</v>
+        <v>0.04442082309588523</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>0.0006222373506911622</v>
       </c>
       <c r="BQ8">
-        <v>0.08410870297642213</v>
+        <v>0.07674192118153453</v>
       </c>
       <c r="BR8">
-        <v>0.04335495129338941</v>
+        <v>0.04440301228832187</v>
       </c>
       <c r="BS8">
-        <v>0.08071511741580628</v>
+        <v>0.0740490438454887</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>0.001662759412185314</v>
       </c>
       <c r="BU8">
-        <v>0.002664248608747369</v>
+        <v>0.01211413402371544</v>
       </c>
       <c r="BV8">
-        <v>0.01985747938537596</v>
+        <v>0.02575730307450149</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>0.002960863838309987</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.002031759353270557</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>0.002118843126879831</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
+        <v>0.005560447422639571</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>0.0007848601719959876</v>
       </c>
       <c r="CB8">
-        <v>0.01299431847020183</v>
+        <v>0.02031124899630287</v>
       </c>
       <c r="CC8">
-        <v>0</v>
+        <v>0.008336082871476341</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>1.37161926100735E-05</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>0.00888762905678778</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>0.0002528641544153399</v>
       </c>
       <c r="CG8">
-        <v>0.02482694413159176</v>
+        <v>0.02970067174705522</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -2836,58 +2836,58 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1138749373912031</v>
+        <v>0.1247528329055421</v>
       </c>
       <c r="E9">
-        <v>0.0267935134387909</v>
+        <v>0.02114786640353796</v>
       </c>
       <c r="F9">
-        <v>0.3404077648809604</v>
+        <v>0.3942698543142217</v>
       </c>
       <c r="G9">
-        <v>0.04235397134702457</v>
+        <v>0.03966089303042671</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06056823576690483</v>
+        <v>0.06133128115030386</v>
       </c>
       <c r="J9">
-        <v>0.04338015841422052</v>
+        <v>0.04088179723589452</v>
       </c>
       <c r="K9">
-        <v>0.001922397206837445</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.05095277088403372</v>
+        <v>0.04989129921299124</v>
       </c>
       <c r="N9">
-        <v>0.02026325375472402</v>
+        <v>0.01337850176628921</v>
       </c>
       <c r="O9">
-        <v>0.0719437834972325</v>
+        <v>0.07486531846906203</v>
       </c>
       <c r="P9">
-        <v>0.009018435832450088</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.01531448292320568</v>
+        <v>0.007490710628356743</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.04903690919531214</v>
+        <v>0.04761190623716044</v>
       </c>
       <c r="T9">
-        <v>0.001667808347386435</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.06983013537312532</v>
+        <v>0.07235060943978824</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2896,13 +2896,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.007764498544092086</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.03879320103006632</v>
+        <v>0.03542447299196487</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.01743609427331029</v>
+        <v>0.01001489389134496</v>
       </c>
       <c r="AE9">
-        <v>0.01484131699605823</v>
+        <v>0.006927762323115544</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.002531685683927224</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.001304645219134166</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -3255,100 +3255,100 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.2145467030316226</v>
+        <v>0.1791479578129374</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>2.191657926187443E-05</v>
       </c>
       <c r="BF10">
-        <v>0.3104024534441656</v>
+        <v>0.2547203352850745</v>
       </c>
       <c r="BG10">
-        <v>0.01709046184599059</v>
+        <v>0.0234740673171899</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>0.003637522933016657</v>
       </c>
       <c r="BI10">
-        <v>0.09032230368052527</v>
+        <v>0.08120982516458884</v>
       </c>
       <c r="BJ10">
-        <v>0.03022498086483045</v>
+        <v>0.03382928153161896</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>0.001379353300803064</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>0.0006825648674032725</v>
       </c>
       <c r="BM10">
-        <v>0.04999276456190098</v>
+        <v>0.04941414112442531</v>
       </c>
       <c r="BN10">
-        <v>0.02380476976697626</v>
+        <v>0.0287676069377664</v>
       </c>
       <c r="BO10">
-        <v>0.05240792263959081</v>
+        <v>0.05131824429107449</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>0.006438828957378661</v>
       </c>
       <c r="BQ10">
-        <v>0.01858987114631425</v>
+        <v>0.02465619697703412</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>0.0001151313361388809</v>
       </c>
       <c r="BS10">
-        <v>0.05866877355588045</v>
+        <v>0.05625427981013609</v>
       </c>
       <c r="BT10">
-        <v>0.02633682455628826</v>
+        <v>0.03076387111069785</v>
       </c>
       <c r="BU10">
-        <v>0.04581153379420684</v>
+        <v>0.04611767170538305</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>0.00103306592374087</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>0.001069145132729956</v>
       </c>
       <c r="BX10">
-        <v>0.01313046678549028</v>
+        <v>0.02035201944617591</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>0.006205778206817007</v>
       </c>
       <c r="BZ10">
-        <v>0.02695655073686338</v>
+        <v>0.03125246131677548</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>0.004271326288995658</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>0.001171353716441903</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>0.0003036371846430655</v>
       </c>
       <c r="CD10">
-        <v>0.009041262600372763</v>
+        <v>0.01712810350051444</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>0.002492964598255529</v>
       </c>
       <c r="CF10">
-        <v>0</v>
+        <v>0.004356437586620804</v>
       </c>
       <c r="CG10">
-        <v>0.001416341191280384</v>
+        <v>0.0111166390193193</v>
       </c>
       <c r="CH10">
-        <v>0</v>
+        <v>0.008424062958389357</v>
       </c>
       <c r="CI10">
-        <v>0.01125601579770082</v>
+        <v>0.01887420807865143</v>
       </c>
     </row>
     <row r="11" spans="1:87">
@@ -3512,100 +3512,100 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.04195775259185967</v>
+        <v>0.04297266184391477</v>
       </c>
       <c r="BC11">
-        <v>0.2289671316621588</v>
+        <v>0.1899347042990143</v>
       </c>
       <c r="BD11">
-        <v>0.2669349853455623</v>
+        <v>0.2197718886835035</v>
       </c>
       <c r="BE11">
-        <v>0.06025239536173688</v>
+        <v>0.05734957748747128</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>0.0001252373694993768</v>
       </c>
       <c r="BG11">
-        <v>0.02913224156931832</v>
+        <v>0.03289368449650308</v>
       </c>
       <c r="BH11">
-        <v>0.03361642351050104</v>
+        <v>0.03641759618527864</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.003183073237962642</v>
       </c>
       <c r="BJ11">
-        <v>0.009798869595643325</v>
+        <v>0.01770047949833351</v>
       </c>
       <c r="BK11">
-        <v>0.009547838596942821</v>
+        <v>0.01750320581894922</v>
       </c>
       <c r="BL11">
-        <v>0.002671067402072439</v>
+        <v>0.01209906862904581</v>
       </c>
       <c r="BM11">
-        <v>0.06900927341800701</v>
+        <v>0.06423120391218622</v>
       </c>
       <c r="BN11">
-        <v>0.01027399096676209</v>
+        <v>0.01807385546193923</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.002194429766518939</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.005375992041229917</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.005416427805129327</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.0009698921788621318</v>
       </c>
       <c r="BS11">
-        <v>0.1493488915003102</v>
+        <v>0.1273664029173632</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.005526098583661543</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.0009269068927233933</v>
       </c>
       <c r="BV11">
-        <v>0.03518432085222672</v>
+        <v>0.03764973436383122</v>
       </c>
       <c r="BW11">
-        <v>0.01002992111523541</v>
+        <v>0.01788205222693362</v>
       </c>
       <c r="BX11">
-        <v>0.02849833474419252</v>
+        <v>0.0323955263709061</v>
       </c>
       <c r="BY11">
-        <v>0.01136114581898356</v>
+        <v>0.01892820029930367</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>0.0009858909399379006</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>0.002184490416823865</v>
       </c>
       <c r="CB11">
-        <v>0</v>
+        <v>0.004590437228989843</v>
       </c>
       <c r="CC11">
-        <v>0.00286647288270721</v>
+        <v>0.01225262878032684</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>0.0003429674467107031</v>
       </c>
       <c r="CE11">
-        <v>0</v>
+        <v>0.0003485308661317049</v>
       </c>
       <c r="CF11">
-        <v>0.0005489430657796026</v>
+        <v>0.01043138902732898</v>
       </c>
       <c r="CG11">
-        <v>0</v>
+        <v>0.001975764923685054</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -4057,100 +4057,100 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.05450982865424624</v>
+        <v>0.05276390914527462</v>
       </c>
       <c r="BE2">
-        <v>0.2108242804088215</v>
+        <v>0.1853953166906246</v>
       </c>
       <c r="BF2">
-        <v>0.458655398096329</v>
+        <v>0.3898231412098426</v>
       </c>
       <c r="BG2">
-        <v>0.458655398096329</v>
+        <v>0.3938994667257805</v>
       </c>
       <c r="BH2">
-        <v>0.458655398096329</v>
+        <v>0.4037526504553685</v>
       </c>
       <c r="BI2">
-        <v>0.5254128786509061</v>
+        <v>0.4661250556469411</v>
       </c>
       <c r="BJ2">
-        <v>0.5254128786509061</v>
+        <v>0.470111798175185</v>
       </c>
       <c r="BK2">
-        <v>0.5824050587658919</v>
+        <v>0.5248231552386514</v>
       </c>
       <c r="BL2">
-        <v>0.5824050587658919</v>
+        <v>0.5342998291897714</v>
       </c>
       <c r="BM2">
-        <v>0.5824050587658919</v>
+        <v>0.53436190566412</v>
       </c>
       <c r="BN2">
-        <v>0.590062643403614</v>
+        <v>0.5503694140677314</v>
       </c>
       <c r="BO2">
-        <v>0.6212236676865044</v>
+        <v>0.584815779873789</v>
       </c>
       <c r="BP2">
-        <v>0.6606203359813855</v>
+        <v>0.625723151721812</v>
       </c>
       <c r="BQ2">
-        <v>0.6965850904234843</v>
+        <v>0.6639381274310453</v>
       </c>
       <c r="BR2">
-        <v>0.7343413351009511</v>
+        <v>0.7035585584049772</v>
       </c>
       <c r="BS2">
-        <v>0.841138376220408</v>
+        <v>0.7973426956178327</v>
       </c>
       <c r="BT2">
-        <v>0.8673082589796626</v>
+        <v>0.8278734240440369</v>
       </c>
       <c r="BU2">
-        <v>0.9663774327697284</v>
+        <v>0.9155949148586254</v>
       </c>
       <c r="BV2">
-        <v>0.9663774327697284</v>
+        <v>0.9159140966449932</v>
       </c>
       <c r="BW2">
-        <v>0.9663774327697284</v>
+        <v>0.9167831182948712</v>
       </c>
       <c r="BX2">
-        <v>0.9766810438111221</v>
+        <v>0.9348664804576339</v>
       </c>
       <c r="BY2">
-        <v>0.9766810438111221</v>
+        <v>0.9402866270446552</v>
       </c>
       <c r="BZ2">
-        <v>0.9805662092838936</v>
+        <v>0.9533346069666947</v>
       </c>
       <c r="CA2">
-        <v>0.9805662092838936</v>
+        <v>0.9547215814290123</v>
       </c>
       <c r="CB2">
-        <v>0.9805662092838936</v>
+        <v>0.9566663047755281</v>
       </c>
       <c r="CC2">
-        <v>0.9805662092838936</v>
+        <v>0.9567646596974803</v>
       </c>
       <c r="CD2">
-        <v>0.9805662092838936</v>
+        <v>0.9646067736566366</v>
       </c>
       <c r="CE2">
-        <v>0.9805662092838936</v>
+        <v>0.9711508933727432</v>
       </c>
       <c r="CF2">
-        <v>0.9805662092838936</v>
+        <v>0.9711590419813528</v>
       </c>
       <c r="CG2">
-        <v>0.9805662092838936</v>
+        <v>0.9744515554632363</v>
       </c>
       <c r="CH2">
-        <v>0.9805662092838936</v>
+        <v>0.9747538530013869</v>
       </c>
       <c r="CI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:87">
@@ -4317,97 +4317,97 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.009690839874556101</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.0163494568902812</v>
       </c>
       <c r="BE3">
-        <v>0.003343278705746478</v>
+        <v>0.02896464305824002</v>
       </c>
       <c r="BF3">
-        <v>0.1432786410461649</v>
+        <v>0.1484251625692081</v>
       </c>
       <c r="BG3">
-        <v>0.1432786410461649</v>
+        <v>0.1539973019805888</v>
       </c>
       <c r="BH3">
-        <v>0.2144527919069704</v>
+        <v>0.2196712888747901</v>
       </c>
       <c r="BI3">
-        <v>0.2144527919069704</v>
+        <v>0.2211212161088759</v>
       </c>
       <c r="BJ3">
-        <v>0.4473746607938566</v>
+        <v>0.4133178270827416</v>
       </c>
       <c r="BK3">
-        <v>0.4763066217115066</v>
+        <v>0.4459490435211777</v>
       </c>
       <c r="BL3">
-        <v>0.4763066217115066</v>
+        <v>0.4539357885133608</v>
       </c>
       <c r="BM3">
-        <v>0.4763066217115066</v>
+        <v>0.4552446904098215</v>
       </c>
       <c r="BN3">
-        <v>0.4763066217115066</v>
+        <v>0.4577999637238915</v>
       </c>
       <c r="BO3">
-        <v>0.4763066217115066</v>
+        <v>0.4588610531043363</v>
       </c>
       <c r="BP3">
-        <v>0.5635801628211441</v>
+        <v>0.5371283372964714</v>
       </c>
       <c r="BQ3">
-        <v>0.7496236503186815</v>
+        <v>0.69265564685224</v>
       </c>
       <c r="BR3">
-        <v>0.7496236503186815</v>
+        <v>0.6979900835851732</v>
       </c>
       <c r="BS3">
-        <v>0.7700003647569867</v>
+        <v>0.7239291979808438</v>
       </c>
       <c r="BT3">
-        <v>0.788125135001749</v>
+        <v>0.7481067920773402</v>
       </c>
       <c r="BU3">
-        <v>0.9073888702359264</v>
+        <v>0.8513975100146242</v>
       </c>
       <c r="BV3">
-        <v>0.9073888702359264</v>
+        <v>0.8540191881824865</v>
       </c>
       <c r="BW3">
-        <v>0.9073888702359264</v>
+        <v>0.8606882201090968</v>
       </c>
       <c r="BX3">
-        <v>0.9073888702359264</v>
+        <v>0.8612662930028553</v>
       </c>
       <c r="BY3">
-        <v>0.9073888702359264</v>
+        <v>0.865948520907888</v>
       </c>
       <c r="BZ3">
-        <v>0.9073888702359264</v>
+        <v>0.8659950150589556</v>
       </c>
       <c r="CA3">
-        <v>0.9196121723980708</v>
+        <v>0.8855563509674089</v>
       </c>
       <c r="CB3">
-        <v>0.9196121723980708</v>
+        <v>0.8856255372583433</v>
       </c>
       <c r="CC3">
-        <v>0.9196121723980708</v>
+        <v>0.8921804484485434</v>
       </c>
       <c r="CD3">
-        <v>0.9196121723980708</v>
+        <v>0.9008449559512592</v>
       </c>
       <c r="CE3">
-        <v>0.9196121723980708</v>
+        <v>0.9071188724244026</v>
       </c>
       <c r="CF3">
-        <v>0.9302691396471945</v>
+        <v>0.9254549866988109</v>
       </c>
       <c r="CG3">
-        <v>0.9489730870436659</v>
+        <v>0.9500856259073838</v>
       </c>
       <c r="CH3">
         <v>1</v>
@@ -4577,97 +4577,97 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.2848535686402829</v>
+        <v>0.2353726106009148</v>
       </c>
       <c r="BC4">
-        <v>0.3959862217823027</v>
+        <v>0.3332993874399008</v>
       </c>
       <c r="BD4">
-        <v>0.4348925711856815</v>
+        <v>0.374081608550368</v>
       </c>
       <c r="BE4">
-        <v>0.4348925711856815</v>
+        <v>0.3767094764170225</v>
       </c>
       <c r="BF4">
-        <v>0.585889375546878</v>
+        <v>0.5061762752839614</v>
       </c>
       <c r="BG4">
-        <v>0.585889375546878</v>
+        <v>0.50628425166423</v>
       </c>
       <c r="BH4">
-        <v>0.585889375546878</v>
+        <v>0.5066815587359428</v>
       </c>
       <c r="BI4">
-        <v>0.5898268424006669</v>
+        <v>0.5197968336760773</v>
       </c>
       <c r="BJ4">
-        <v>0.5912362411975414</v>
+        <v>0.5309119325240419</v>
       </c>
       <c r="BK4">
-        <v>0.5912362411975414</v>
+        <v>0.5309195393763285</v>
       </c>
       <c r="BL4">
-        <v>0.7831041049795497</v>
+        <v>0.6927230135521365</v>
       </c>
       <c r="BM4">
-        <v>0.8196818460172646</v>
+        <v>0.7316628686043447</v>
       </c>
       <c r="BN4">
-        <v>0.8196818460172646</v>
+        <v>0.7334630128996735</v>
       </c>
       <c r="BO4">
-        <v>0.8196818460172646</v>
+        <v>0.7350706834001542</v>
       </c>
       <c r="BP4">
-        <v>0.8196818460172646</v>
+        <v>0.741838983320392</v>
       </c>
       <c r="BQ4">
-        <v>0.844396112687591</v>
+        <v>0.7713926045903169</v>
       </c>
       <c r="BR4">
-        <v>0.8638894920526696</v>
+        <v>0.7968155245765841</v>
       </c>
       <c r="BS4">
-        <v>0.9373710984126994</v>
+        <v>0.864953260170207</v>
       </c>
       <c r="BT4">
-        <v>0.9373710984126994</v>
+        <v>0.866690275965287</v>
       </c>
       <c r="BU4">
-        <v>0.9373710984126994</v>
+        <v>0.8679741785788292</v>
       </c>
       <c r="BV4">
-        <v>0.9373710984126994</v>
+        <v>0.8712783942523078</v>
       </c>
       <c r="BW4">
-        <v>0.9427006633292302</v>
+        <v>0.8854950799141342</v>
       </c>
       <c r="BX4">
-        <v>0.9427006633292302</v>
+        <v>0.8889199284684143</v>
       </c>
       <c r="BY4">
-        <v>0.9427006633292302</v>
+        <v>0.8927122185394264</v>
       </c>
       <c r="BZ4">
-        <v>0.9427006633292302</v>
+        <v>0.8981843133571251</v>
       </c>
       <c r="CA4">
-        <v>0.9427006633292302</v>
+        <v>0.9040754237665081</v>
       </c>
       <c r="CB4">
-        <v>0.9517237128863365</v>
+        <v>0.9212143486673734</v>
       </c>
       <c r="CC4">
-        <v>0.9530257050763937</v>
+        <v>0.9322444687401388</v>
       </c>
       <c r="CD4">
-        <v>0.9750550732582175</v>
+        <v>0.9596738316255166</v>
       </c>
       <c r="CE4">
-        <v>0.9814572083718693</v>
+        <v>0.9747391215247124</v>
       </c>
       <c r="CF4">
-        <v>0.9814572083718693</v>
+        <v>0.9753291732415053</v>
       </c>
       <c r="CG4">
         <v>1</v>
@@ -4840,97 +4840,97 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.3086488216535676</v>
+        <v>0.2579346693242396</v>
       </c>
       <c r="BC5">
-        <v>0.417811900872272</v>
+        <v>0.3556243348914186</v>
       </c>
       <c r="BD5">
-        <v>0.4890627465736365</v>
+        <v>0.4228594630652379</v>
       </c>
       <c r="BE5">
-        <v>0.4890627465736365</v>
+        <v>0.4246742985608631</v>
       </c>
       <c r="BF5">
-        <v>0.5782214069595524</v>
+        <v>0.5062946043237206</v>
       </c>
       <c r="BG5">
-        <v>0.5782214069595524</v>
+        <v>0.5068565427715434</v>
       </c>
       <c r="BH5">
-        <v>0.6217720008921128</v>
+        <v>0.5518403215778112</v>
       </c>
       <c r="BI5">
-        <v>0.6217720008921128</v>
+        <v>0.5521593259787381</v>
       </c>
       <c r="BJ5">
-        <v>0.6217720008921128</v>
+        <v>0.5600917534580248</v>
       </c>
       <c r="BK5">
-        <v>0.6217720008921128</v>
+        <v>0.5650421719447465</v>
       </c>
       <c r="BL5">
-        <v>0.6564798568911513</v>
+        <v>0.6029226632875374</v>
       </c>
       <c r="BM5">
-        <v>0.6781042609871918</v>
+        <v>0.6302933418799971</v>
       </c>
       <c r="BN5">
-        <v>0.6781042609871918</v>
+        <v>0.6325805509884266</v>
       </c>
       <c r="BO5">
-        <v>0.7666873650440063</v>
+        <v>0.7137385178142077</v>
       </c>
       <c r="BP5">
-        <v>0.7999363061675022</v>
+        <v>0.7504470766827324</v>
       </c>
       <c r="BQ5">
-        <v>0.8028767947158229</v>
+        <v>0.7628091432280499</v>
       </c>
       <c r="BR5">
-        <v>0.9101289045661509</v>
+        <v>0.8589637452369143</v>
       </c>
       <c r="BS5">
-        <v>0.9101289045661509</v>
+        <v>0.8645133862011404</v>
       </c>
       <c r="BT5">
-        <v>0.9101289045661509</v>
+        <v>0.8682762765731267</v>
       </c>
       <c r="BU5">
-        <v>0.9137104027802809</v>
+        <v>0.8811532600997392</v>
       </c>
       <c r="BV5">
-        <v>0.9137104027802809</v>
+        <v>0.8816162296483155</v>
       </c>
       <c r="BW5">
-        <v>0.9400616482431825</v>
+        <v>0.9127839350525485</v>
       </c>
       <c r="BX5">
-        <v>0.9400616482431825</v>
+        <v>0.9130817485946932</v>
       </c>
       <c r="BY5">
-        <v>0.9400616482431825</v>
+        <v>0.9177428240261788</v>
       </c>
       <c r="BZ5">
-        <v>0.9400616482431825</v>
+        <v>0.9177556799622362</v>
       </c>
       <c r="CA5">
-        <v>0.9400616482431825</v>
+        <v>0.9204343239784042</v>
       </c>
       <c r="CB5">
-        <v>0.9483267403898868</v>
+        <v>0.9370735940632502</v>
       </c>
       <c r="CC5">
-        <v>0.9483267403898868</v>
+        <v>0.9371420688249485</v>
       </c>
       <c r="CD5">
-        <v>0.9483267403898868</v>
+        <v>0.9387529260505557</v>
       </c>
       <c r="CE5">
-        <v>0.9483267403898868</v>
+        <v>0.938928686465785</v>
       </c>
       <c r="CF5">
-        <v>0.9483267403898868</v>
+        <v>0.948491360939913</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -5103,106 +5103,106 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.1666002112624654</v>
+        <v>0.1394448729028393</v>
       </c>
       <c r="BC6">
-        <v>0.1881195919407885</v>
+        <v>0.1661649807331043</v>
       </c>
       <c r="BD6">
-        <v>0.6474327054517848</v>
+        <v>0.5330416446370325</v>
       </c>
       <c r="BE6">
-        <v>0.6474327054517848</v>
+        <v>0.5331213804086047</v>
       </c>
       <c r="BF6">
-        <v>0.6581461169940646</v>
+        <v>0.5514454766683713</v>
       </c>
       <c r="BG6">
-        <v>0.7016585866716748</v>
+        <v>0.5952537537673325</v>
       </c>
       <c r="BH6">
-        <v>0.7016585866716748</v>
+        <v>0.5961428809123308</v>
       </c>
       <c r="BI6">
-        <v>0.7016585866716748</v>
+        <v>0.6010951651630559</v>
       </c>
       <c r="BJ6">
-        <v>0.7016585866716748</v>
+        <v>0.6027873814805812</v>
       </c>
       <c r="BK6">
-        <v>0.7016585866716748</v>
+        <v>0.6045067312197511</v>
       </c>
       <c r="BL6">
-        <v>0.7079114402676934</v>
+        <v>0.6193650674300308</v>
       </c>
       <c r="BM6">
-        <v>0.7501910791657899</v>
+        <v>0.6622154608483198</v>
       </c>
       <c r="BN6">
-        <v>0.7820626003961865</v>
+        <v>0.6969789649496998</v>
       </c>
       <c r="BO6">
-        <v>0.7820626003961865</v>
+        <v>0.7031010369132569</v>
       </c>
       <c r="BP6">
-        <v>0.7820626003961865</v>
+        <v>0.7112444253921678</v>
       </c>
       <c r="BQ6">
-        <v>0.7820626003961865</v>
+        <v>0.7171068088285302</v>
       </c>
       <c r="BR6">
-        <v>0.7975568855409528</v>
+        <v>0.7391455436901858</v>
       </c>
       <c r="BS6">
-        <v>0.8438437479852371</v>
+        <v>0.7851094658291097</v>
       </c>
       <c r="BT6">
-        <v>0.8438437479852371</v>
+        <v>0.7942680376796623</v>
       </c>
       <c r="BU6">
-        <v>0.8438437479852371</v>
+        <v>0.7947505191804426</v>
       </c>
       <c r="BV6">
-        <v>0.9154887027367095</v>
+        <v>0.8604171476418162</v>
       </c>
       <c r="BW6">
-        <v>0.9154887027367095</v>
+        <v>0.8604177640128259</v>
       </c>
       <c r="BX6">
-        <v>0.9549949457458562</v>
+        <v>0.9011132869442534</v>
       </c>
       <c r="BY6">
-        <v>0.9549949457458562</v>
+        <v>0.9031422946774459</v>
       </c>
       <c r="BZ6">
-        <v>0.9549949457458562</v>
+        <v>0.9111762638344273</v>
       </c>
       <c r="CA6">
-        <v>0.9602648982688048</v>
+        <v>0.9252709065084536</v>
       </c>
       <c r="CB6">
-        <v>0.9885217454299242</v>
+        <v>0.9572258846065523</v>
       </c>
       <c r="CC6">
-        <v>0.9885217454299242</v>
+        <v>0.9574339001578064</v>
       </c>
       <c r="CD6">
-        <v>0.991762900732713</v>
+        <v>0.9699522099069272</v>
       </c>
       <c r="CE6">
-        <v>0.991762900732713</v>
+        <v>0.9735999464846883</v>
       </c>
       <c r="CF6">
-        <v>0.9977208821528611</v>
+        <v>0.9882291731936121</v>
       </c>
       <c r="CG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:87">
@@ -5366,106 +5366,106 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.1723214119879998</v>
+        <v>0.1428117980397744</v>
       </c>
       <c r="BC7">
-        <v>0.1723214119879998</v>
+        <v>0.147259151006587</v>
       </c>
       <c r="BD7">
-        <v>0.4700588041623089</v>
+        <v>0.3867317275259643</v>
       </c>
       <c r="BE7">
-        <v>0.4700588041623089</v>
+        <v>0.3913636534571481</v>
       </c>
       <c r="BF7">
-        <v>0.4700588041623089</v>
+        <v>0.391370310013289</v>
       </c>
       <c r="BG7">
-        <v>0.5418070450994203</v>
+        <v>0.4566682139424438</v>
       </c>
       <c r="BH7">
-        <v>0.5450853922057483</v>
+        <v>0.4691949061785788</v>
       </c>
       <c r="BI7">
-        <v>0.5551639668953753</v>
+        <v>0.4869626792647275</v>
       </c>
       <c r="BJ7">
-        <v>0.5551639668953753</v>
+        <v>0.4905230832734944</v>
       </c>
       <c r="BK7">
-        <v>0.613701729697442</v>
+        <v>0.5456393891421447</v>
       </c>
       <c r="BL7">
-        <v>0.6335649004147944</v>
+        <v>0.5709483596717403</v>
       </c>
       <c r="BM7">
-        <v>0.6983028812258061</v>
+        <v>0.6308433061777127</v>
       </c>
       <c r="BN7">
-        <v>0.7010495750089233</v>
+        <v>0.6429602418259992</v>
       </c>
       <c r="BO7">
-        <v>0.7486510839605028</v>
+        <v>0.6896477429341374</v>
       </c>
       <c r="BP7">
-        <v>0.7486510839605028</v>
+        <v>0.6921821506251252</v>
       </c>
       <c r="BQ7">
-        <v>0.8674898366333859</v>
+        <v>0.7937737191783631</v>
       </c>
       <c r="BR7">
-        <v>0.8818518416442779</v>
+        <v>0.8148428236323451</v>
       </c>
       <c r="BS7">
-        <v>0.9296620251528154</v>
+        <v>0.8616911546849169</v>
       </c>
       <c r="BT7">
-        <v>0.9296620251528154</v>
+        <v>0.8631078394164214</v>
       </c>
       <c r="BU7">
-        <v>0.9296620251528154</v>
+        <v>0.8643648027723594</v>
       </c>
       <c r="BV7">
-        <v>0.9399990340809909</v>
+        <v>0.8823317566538643</v>
       </c>
       <c r="BW7">
-        <v>0.9399990340809909</v>
+        <v>0.8885805106286121</v>
       </c>
       <c r="BX7">
-        <v>0.9452333679522227</v>
+        <v>0.9026147237014901</v>
       </c>
       <c r="BY7">
-        <v>0.9452333679522227</v>
+        <v>0.9054973002981322</v>
       </c>
       <c r="BZ7">
-        <v>0.9452333679522227</v>
+        <v>0.9120919058489118</v>
       </c>
       <c r="CA7">
-        <v>0.9452333679522227</v>
+        <v>0.9123351543261915</v>
       </c>
       <c r="CB7">
-        <v>0.9631198058976219</v>
+        <v>0.9361206146276702</v>
       </c>
       <c r="CC7">
-        <v>0.9703786948111691</v>
+        <v>0.9517151955753143</v>
       </c>
       <c r="CD7">
-        <v>0.9703786948111691</v>
+        <v>0.9518134648205733</v>
       </c>
       <c r="CE7">
-        <v>0.9802472661328101</v>
+        <v>0.9694193838192068</v>
       </c>
       <c r="CF7">
-        <v>0.9802472661328101</v>
+        <v>0.974776145512983</v>
       </c>
       <c r="CG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:87">
@@ -5629,106 +5629,106 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0.2296836470166916</v>
+        <v>0.1922585216915388</v>
       </c>
       <c r="BC8">
-        <v>0.2296836470166916</v>
+        <v>0.1923526897213737</v>
       </c>
       <c r="BD8">
-        <v>0.4275895113136815</v>
+        <v>0.3593949116181481</v>
       </c>
       <c r="BE8">
-        <v>0.4275895113136815</v>
+        <v>0.3650608893284711</v>
       </c>
       <c r="BF8">
-        <v>0.4275895113136815</v>
+        <v>0.3653187051930895</v>
       </c>
       <c r="BG8">
-        <v>0.480637661924971</v>
+        <v>0.4174134630675197</v>
       </c>
       <c r="BH8">
-        <v>0.480637661924971</v>
+        <v>0.4245630326870678</v>
       </c>
       <c r="BI8">
-        <v>0.4946185230382239</v>
+        <v>0.4456571228043804</v>
       </c>
       <c r="BJ8">
-        <v>0.4946185230382239</v>
+        <v>0.4469635653345073</v>
       </c>
       <c r="BK8">
-        <v>0.5592031524208746</v>
+        <v>0.5082127475386823</v>
       </c>
       <c r="BL8">
-        <v>0.6088853667738716</v>
+        <v>0.5576365683459222</v>
       </c>
       <c r="BM8">
-        <v>0.6881008411029064</v>
+        <v>0.6304956157088139</v>
       </c>
       <c r="BN8">
-        <v>0.6881008411029064</v>
+        <v>0.6392697787959326</v>
       </c>
       <c r="BO8">
-        <v>0.7314782377184651</v>
+        <v>0.6836906018918179</v>
       </c>
       <c r="BP8">
-        <v>0.7314782377184651</v>
+        <v>0.684312839242509</v>
       </c>
       <c r="BQ8">
-        <v>0.8155869406948872</v>
+        <v>0.7610547604240435</v>
       </c>
       <c r="BR8">
-        <v>0.8589418919882766</v>
+        <v>0.8054577727123654</v>
       </c>
       <c r="BS8">
-        <v>0.9396570094040829</v>
+        <v>0.8795068165578541</v>
       </c>
       <c r="BT8">
-        <v>0.9396570094040829</v>
+        <v>0.8811695759700394</v>
       </c>
       <c r="BU8">
-        <v>0.9423212580128303</v>
+        <v>0.8932837099937548</v>
       </c>
       <c r="BV8">
-        <v>0.9621787373982063</v>
+        <v>0.9190410130682564</v>
       </c>
       <c r="BW8">
-        <v>0.9621787373982063</v>
+        <v>0.9220018769065663</v>
       </c>
       <c r="BX8">
-        <v>0.9621787373982063</v>
+        <v>0.9240336362598369</v>
       </c>
       <c r="BY8">
-        <v>0.9621787373982063</v>
+        <v>0.9261524793867167</v>
       </c>
       <c r="BZ8">
-        <v>0.9621787373982063</v>
+        <v>0.9317129268093564</v>
       </c>
       <c r="CA8">
-        <v>0.9621787373982063</v>
+        <v>0.9324977869813523</v>
       </c>
       <c r="CB8">
-        <v>0.9751730558684081</v>
+        <v>0.9528090359776552</v>
       </c>
       <c r="CC8">
-        <v>0.9751730558684081</v>
+        <v>0.9611451188491316</v>
       </c>
       <c r="CD8">
-        <v>0.9751730558684081</v>
+        <v>0.9611588350417416</v>
       </c>
       <c r="CE8">
-        <v>0.9751730558684081</v>
+        <v>0.9700464640985293</v>
       </c>
       <c r="CF8">
-        <v>0.9751730558684081</v>
+        <v>0.9702993282529447</v>
       </c>
       <c r="CG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:87">
@@ -5742,256 +5742,256 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1138749373912031</v>
+        <v>0.1247528329055421</v>
       </c>
       <c r="E9">
-        <v>0.140668450829994</v>
+        <v>0.1459006993090801</v>
       </c>
       <c r="F9">
-        <v>0.4810762157109545</v>
+        <v>0.5401705536233017</v>
       </c>
       <c r="G9">
-        <v>0.5234301870579791</v>
+        <v>0.5798314466537284</v>
       </c>
       <c r="H9">
-        <v>0.5234301870579791</v>
+        <v>0.5798314466537284</v>
       </c>
       <c r="I9">
-        <v>0.5839984228248839</v>
+        <v>0.6411627278040323</v>
       </c>
       <c r="J9">
-        <v>0.6273785812391044</v>
+        <v>0.6820445250399267</v>
       </c>
       <c r="K9">
-        <v>0.6293009784459418</v>
+        <v>0.6820445250399267</v>
       </c>
       <c r="L9">
-        <v>0.6293009784459418</v>
+        <v>0.6820445250399267</v>
       </c>
       <c r="M9">
-        <v>0.6802537493299755</v>
+        <v>0.731935824252918</v>
       </c>
       <c r="N9">
-        <v>0.7005170030846996</v>
+        <v>0.7453143260192072</v>
       </c>
       <c r="O9">
-        <v>0.7724607865819321</v>
+        <v>0.8201796444882692</v>
       </c>
       <c r="P9">
-        <v>0.7814792224143822</v>
+        <v>0.8201796444882692</v>
       </c>
       <c r="Q9">
-        <v>0.7967937053375879</v>
+        <v>0.8276703551166259</v>
       </c>
       <c r="R9">
-        <v>0.7967937053375879</v>
+        <v>0.8276703551166259</v>
       </c>
       <c r="S9">
-        <v>0.8458306145329</v>
+        <v>0.8752822613537863</v>
       </c>
       <c r="T9">
-        <v>0.8474984228802864</v>
+        <v>0.8752822613537863</v>
       </c>
       <c r="U9">
-        <v>0.9173285582534118</v>
+        <v>0.9476328707935745</v>
       </c>
       <c r="V9">
-        <v>0.9173285582534118</v>
+        <v>0.9476328707935745</v>
       </c>
       <c r="W9">
-        <v>0.9173285582534118</v>
+        <v>0.9476328707935745</v>
       </c>
       <c r="X9">
-        <v>0.9250930567975039</v>
+        <v>0.9476328707935745</v>
       </c>
       <c r="Y9">
-        <v>0.9250930567975039</v>
+        <v>0.9476328707935745</v>
       </c>
       <c r="Z9">
-        <v>0.9638862578275702</v>
+        <v>0.9830573437855393</v>
       </c>
       <c r="AA9">
-        <v>0.9638862578275702</v>
+        <v>0.9830573437855393</v>
       </c>
       <c r="AB9">
-        <v>0.9638862578275702</v>
+        <v>0.9830573437855393</v>
       </c>
       <c r="AC9">
-        <v>0.9638862578275702</v>
+        <v>0.9830573437855393</v>
       </c>
       <c r="AD9">
-        <v>0.9813223521008805</v>
+        <v>0.9930722376768842</v>
       </c>
       <c r="AE9">
-        <v>0.9961636690969388</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.9961636690969388</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.9961636690969388</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.998695354780866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:87">
@@ -6161,97 +6161,97 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.2145467030316226</v>
+        <v>0.1791479578129374</v>
       </c>
       <c r="BE10">
-        <v>0.2145467030316226</v>
+        <v>0.1791698743921993</v>
       </c>
       <c r="BF10">
-        <v>0.5249491564757881</v>
+        <v>0.4338902096772738</v>
       </c>
       <c r="BG10">
-        <v>0.5420396183217787</v>
+        <v>0.4573642769944637</v>
       </c>
       <c r="BH10">
-        <v>0.5420396183217787</v>
+        <v>0.4610017999274804</v>
       </c>
       <c r="BI10">
-        <v>0.632361922002304</v>
+        <v>0.5422116250920692</v>
       </c>
       <c r="BJ10">
-        <v>0.6625869028671345</v>
+        <v>0.5760409066236882</v>
       </c>
       <c r="BK10">
-        <v>0.6625869028671345</v>
+        <v>0.5774202599244913</v>
       </c>
       <c r="BL10">
-        <v>0.6625869028671345</v>
+        <v>0.5781028247918946</v>
       </c>
       <c r="BM10">
-        <v>0.7125796674290354</v>
+        <v>0.6275169659163199</v>
       </c>
       <c r="BN10">
-        <v>0.7363844371960117</v>
+        <v>0.6562845728540863</v>
       </c>
       <c r="BO10">
-        <v>0.7887923598356025</v>
+        <v>0.7076028171451607</v>
       </c>
       <c r="BP10">
-        <v>0.7887923598356025</v>
+        <v>0.7140416461025394</v>
       </c>
       <c r="BQ10">
-        <v>0.8073822309819167</v>
+        <v>0.7386978430795735</v>
       </c>
       <c r="BR10">
-        <v>0.8073822309819167</v>
+        <v>0.7388129744157124</v>
       </c>
       <c r="BS10">
-        <v>0.8660510045377972</v>
+        <v>0.7950672542258485</v>
       </c>
       <c r="BT10">
-        <v>0.8923878290940854</v>
+        <v>0.8258311253365463</v>
       </c>
       <c r="BU10">
-        <v>0.9381993628882923</v>
+        <v>0.8719487970419294</v>
       </c>
       <c r="BV10">
-        <v>0.9381993628882923</v>
+        <v>0.8729818629656703</v>
       </c>
       <c r="BW10">
-        <v>0.9381993628882923</v>
+        <v>0.8740510080984002</v>
       </c>
       <c r="BX10">
-        <v>0.9513298296737825</v>
+        <v>0.8944030275445761</v>
       </c>
       <c r="BY10">
-        <v>0.9513298296737825</v>
+        <v>0.9006088057513931</v>
       </c>
       <c r="BZ10">
-        <v>0.978286380410646</v>
+        <v>0.9318612670681686</v>
       </c>
       <c r="CA10">
-        <v>0.978286380410646</v>
+        <v>0.9361325933571643</v>
       </c>
       <c r="CB10">
-        <v>0.978286380410646</v>
+        <v>0.9373039470736062</v>
       </c>
       <c r="CC10">
-        <v>0.978286380410646</v>
+        <v>0.9376075842582493</v>
       </c>
       <c r="CD10">
-        <v>0.9873276430110187</v>
+        <v>0.9547356877587637</v>
       </c>
       <c r="CE10">
-        <v>0.9873276430110187</v>
+        <v>0.9572286523570193</v>
       </c>
       <c r="CF10">
-        <v>0.9873276430110187</v>
+        <v>0.9615850899436401</v>
       </c>
       <c r="CG10">
-        <v>0.9887439842022991</v>
+        <v>0.9727017289629594</v>
       </c>
       <c r="CH10">
-        <v>0.9887439842022991</v>
+        <v>0.9811257919213487</v>
       </c>
       <c r="CI10">
         <v>1</v>
@@ -6418,106 +6418,106 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.04195775259185967</v>
+        <v>0.04297266184391477</v>
       </c>
       <c r="BC11">
-        <v>0.2709248842540184</v>
+        <v>0.2329073661429291</v>
       </c>
       <c r="BD11">
-        <v>0.5378598695995807</v>
+        <v>0.4526792548264326</v>
       </c>
       <c r="BE11">
-        <v>0.5981122649613175</v>
+        <v>0.5100288323139039</v>
       </c>
       <c r="BF11">
-        <v>0.5981122649613175</v>
+        <v>0.5101540696834034</v>
       </c>
       <c r="BG11">
-        <v>0.6272445065306358</v>
+        <v>0.5430477541799065</v>
       </c>
       <c r="BH11">
-        <v>0.6608609300411368</v>
+        <v>0.5794653503651851</v>
       </c>
       <c r="BI11">
-        <v>0.6608609300411368</v>
+        <v>0.5826484236031477</v>
       </c>
       <c r="BJ11">
-        <v>0.6706597996367801</v>
+        <v>0.6003489031014813</v>
       </c>
       <c r="BK11">
-        <v>0.680207638233723</v>
+        <v>0.6178521089204305</v>
       </c>
       <c r="BL11">
-        <v>0.6828787056357954</v>
+        <v>0.6299511775494764</v>
       </c>
       <c r="BM11">
-        <v>0.7518879790538024</v>
+        <v>0.6941823814616626</v>
       </c>
       <c r="BN11">
-        <v>0.7621619700205645</v>
+        <v>0.7122562369236017</v>
       </c>
       <c r="BO11">
-        <v>0.7621619700205645</v>
+        <v>0.7144506666901207</v>
       </c>
       <c r="BP11">
-        <v>0.7621619700205645</v>
+        <v>0.7198266587313507</v>
       </c>
       <c r="BQ11">
-        <v>0.7621619700205645</v>
+        <v>0.72524308653648</v>
       </c>
       <c r="BR11">
-        <v>0.7621619700205645</v>
+        <v>0.7262129787153421</v>
       </c>
       <c r="BS11">
-        <v>0.9115108615208747</v>
+        <v>0.8535793816327053</v>
       </c>
       <c r="BT11">
-        <v>0.9115108615208747</v>
+        <v>0.8591054802163669</v>
       </c>
       <c r="BU11">
-        <v>0.9115108615208747</v>
+        <v>0.8600323871090902</v>
       </c>
       <c r="BV11">
-        <v>0.9466951823731014</v>
+        <v>0.8976821214729215</v>
       </c>
       <c r="BW11">
-        <v>0.9567251034883367</v>
+        <v>0.9155641736998551</v>
       </c>
       <c r="BX11">
-        <v>0.9852234382325292</v>
+        <v>0.9479597000707612</v>
       </c>
       <c r="BY11">
-        <v>0.9965845840515127</v>
+        <v>0.9668879003700649</v>
       </c>
       <c r="BZ11">
-        <v>0.9965845840515127</v>
+        <v>0.9678737913100028</v>
       </c>
       <c r="CA11">
-        <v>0.9965845840515127</v>
+        <v>0.9700582817268267</v>
       </c>
       <c r="CB11">
-        <v>0.9965845840515127</v>
+        <v>0.9746487189558166</v>
       </c>
       <c r="CC11">
-        <v>0.99945105693422</v>
+        <v>0.9869013477361435</v>
       </c>
       <c r="CD11">
-        <v>0.99945105693422</v>
+        <v>0.9872443151828542</v>
       </c>
       <c r="CE11">
-        <v>0.99945105693422</v>
+        <v>0.9875928460489859</v>
       </c>
       <c r="CF11">
-        <v>0.9999999999999996</v>
+        <v>0.9980242350763149</v>
       </c>
       <c r="CG11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI11">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6585,16 +6585,16 @@
         <v>53</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5254128786509061</v>
+        <v>0.5248231552386514</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -6629,10 +6629,10 @@
         <v>67</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0163494568902812</v>
       </c>
       <c r="F3">
-        <v>0.5635801628211441</v>
+        <v>0.5371283372964714</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.585889375546878</v>
+        <v>0.5061762752839614</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5782214069595524</v>
+        <v>0.5062946043237206</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6474327054517848</v>
+        <v>0.5330416446370325</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6790,16 +6790,16 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5418070450994203</v>
+        <v>0.5456393891421447</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5592031524208746</v>
+        <v>0.5082127475386823</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -6872,16 +6872,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5234301870579791</v>
+        <v>0.5401705536233017</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -6913,16 +6913,16 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5249491564757881</v>
+        <v>0.5422116250920692</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -6954,16 +6954,16 @@
         <v>52</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5378598695995807</v>
+        <v>0.5100288323139039</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7343413351009511</v>
+        <v>0.7035585584049772</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -7090,16 +7090,16 @@
         <v>55</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0163494568902812</v>
       </c>
       <c r="F3">
-        <v>0.7496236503186815</v>
+        <v>0.7239291979808438</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -7131,16 +7131,16 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7831041049795497</v>
+        <v>0.7316628686043447</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7666873650440063</v>
+        <v>0.7137385178142077</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -7213,16 +7213,16 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7016585866716748</v>
+        <v>0.7031010369132569</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -7254,16 +7254,16 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7010495750089233</v>
+        <v>0.7937737191783631</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -7295,16 +7295,16 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7314782377184651</v>
+        <v>0.7610547604240435</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -7336,16 +7336,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7005170030846996</v>
+        <v>0.731935824252918</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -7377,16 +7377,16 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7125796674290354</v>
+        <v>0.7076028171451607</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -7418,16 +7418,16 @@
         <v>52</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7518879790538024</v>
+        <v>0.7122562369236017</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -7513,16 +7513,16 @@
         <v>53</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.841138376220408</v>
+        <v>0.8278734240440369</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -7557,10 +7557,10 @@
         <v>72</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0163494568902812</v>
       </c>
       <c r="F3">
-        <v>0.9073888702359264</v>
+        <v>0.8513975100146242</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -7595,16 +7595,16 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8196818460172646</v>
+        <v>0.864953260170207</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -7636,16 +7636,16 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8028767947158229</v>
+        <v>0.8589637452369143</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7677,16 +7677,16 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8438437479852371</v>
+        <v>0.8604171476418162</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -7718,16 +7718,16 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8674898366333859</v>
+        <v>0.8148428236323451</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -7759,16 +7759,16 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8155869406948872</v>
+        <v>0.8054577727123654</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -7800,16 +7800,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8458306145329</v>
+        <v>0.8201796444882692</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -7841,16 +7841,16 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8073822309819167</v>
+        <v>0.8258311253365463</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9115108615208747</v>
+        <v>0.8535793816327053</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9663774327697284</v>
+        <v>0.9155949148586254</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -8018,16 +8018,16 @@
         <v>55</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0163494568902812</v>
       </c>
       <c r="F3">
-        <v>0.9073888702359264</v>
+        <v>0.9008449559512592</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -8059,16 +8059,16 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9373710984126994</v>
+        <v>0.9040754237665081</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -8100,16 +8100,16 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9101289045661509</v>
+        <v>0.9127839350525485</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -8141,16 +8141,16 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9154887027367095</v>
+        <v>0.9011132869442534</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -8182,16 +8182,16 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9296620251528154</v>
+        <v>0.9026147237014901</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -8223,16 +8223,16 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9396570094040829</v>
+        <v>0.9190410130682564</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9173285582534118</v>
+        <v>0.9476328707935745</v>
       </c>
       <c r="G9">
         <v>19</v>
@@ -8305,16 +8305,16 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9381993628882923</v>
+        <v>0.9006088057513931</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -8346,16 +8346,16 @@
         <v>52</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9115108615208747</v>
+        <v>0.9155641736998551</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>4</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/4_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/4_455-55R22.xlsx
@@ -19,7 +19,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="148">
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
   <si>
     <t>Signal_Value_39</t>
   </si>
@@ -274,9 +382,6 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -715,15 +820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:DR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -983,10 +1088,115 @@
       <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1019,100 +1229,100 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05987577374909726</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05688970700439162</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05587773468244567</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.04942651175212235</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.03502915774015356</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.018126289381969</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01362689568670798</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.007588967605178851</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0008749875775016389</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>9.685697305148949E-05</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0020830859289394</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.009532587828282401</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.02030356224638444</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.03209191691294915</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.04234479610454481</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.06022773520974294</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.05626830585683746</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.06007095142275572</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.05244348260068461</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.0411691370291141</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.02316063906481559</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.01327448623905283</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.004860890629401301</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>5.306402393983777E-05</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.00117430852292676</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.003076999707872249</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.01518651054502732</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.03014720997135778</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.04867142031459274</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.05167818312582977</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.06160883016136934</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.0731590144009602</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1151,105 +1361,210 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.05276390914527462</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.13263140754535</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.2044278245192181</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.004076325515937876</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.009853183729587992</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.06237240519157253</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.003986742528243948</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.05471135706346638</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.009476673951119924</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>6.207647434862428E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01600750840361138</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.03444636580605749</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.04090737184802312</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.03821497570923325</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03962043097393182</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.09378413721285551</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0305307284262042</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.08772149081458856</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0003191817863678154</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0008690216498779605</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01808336216276258</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.005420146587021305</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01304797992203959</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001386974462317664</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.00194472334651579</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>9.835492195225721E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.007842113959156361</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.006544119716106539</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>8.148608609632706E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.003292513481883374</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0003022975381506978</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0252461469986131</v>
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1411,108 +1726,213 @@
         <v>0</v>
       </c>
       <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
         <v>0.009690839874556101</v>
       </c>
-      <c r="BD3">
+      <c r="CN3">
         <v>0.006658617015725104</v>
       </c>
-      <c r="BE3">
+      <c r="CO3">
         <v>0.01261518616795881</v>
       </c>
-      <c r="BF3">
+      <c r="CP3">
         <v>0.1194605195109681</v>
       </c>
-      <c r="BG3">
+      <c r="CQ3">
         <v>0.00557213941138065</v>
       </c>
-      <c r="BH3">
+      <c r="CR3">
         <v>0.06567398689420136</v>
       </c>
-      <c r="BI3">
+      <c r="CS3">
         <v>0.001449927234085795</v>
       </c>
-      <c r="BJ3">
+      <c r="CT3">
         <v>0.1921966109738657</v>
       </c>
-      <c r="BK3">
+      <c r="CU3">
         <v>0.03263121643843612</v>
       </c>
-      <c r="BL3">
+      <c r="CV3">
         <v>0.007986744992183121</v>
       </c>
-      <c r="BM3">
+      <c r="CW3">
         <v>0.001308901896460732</v>
       </c>
-      <c r="BN3">
+      <c r="CX3">
         <v>0.002555273314069962</v>
       </c>
-      <c r="BO3">
+      <c r="CY3">
         <v>0.001061089380444823</v>
       </c>
-      <c r="BP3">
+      <c r="CZ3">
         <v>0.07826728419213506</v>
       </c>
-      <c r="BQ3">
+      <c r="DA3">
         <v>0.1555273095557687</v>
       </c>
-      <c r="BR3">
+      <c r="DB3">
         <v>0.005334436732933191</v>
       </c>
-      <c r="BS3">
+      <c r="DC3">
         <v>0.02593911439567055</v>
       </c>
-      <c r="BT3">
+      <c r="DD3">
         <v>0.02417759409649645</v>
       </c>
-      <c r="BU3">
+      <c r="DE3">
         <v>0.103290717937284</v>
       </c>
-      <c r="BV3">
+      <c r="DF3">
         <v>0.002621678167862252</v>
       </c>
-      <c r="BW3">
+      <c r="DG3">
         <v>0.006669031926610382</v>
       </c>
-      <c r="BX3">
+      <c r="DH3">
         <v>0.0005780728937584882</v>
       </c>
-      <c r="BY3">
+      <c r="DI3">
         <v>0.00468222790503272</v>
       </c>
-      <c r="BZ3">
+      <c r="DJ3">
         <v>4.649415106764973E-05</v>
       </c>
-      <c r="CA3">
+      <c r="DK3">
         <v>0.01956133590845329</v>
       </c>
-      <c r="CB3">
+      <c r="DL3">
         <v>6.91862909343827E-05</v>
       </c>
-      <c r="CC3">
+      <c r="DM3">
         <v>0.006554911190200088</v>
       </c>
-      <c r="CD3">
+      <c r="DN3">
         <v>0.008664507502715829</v>
       </c>
-      <c r="CE3">
+      <c r="DO3">
         <v>0.006273916473143293</v>
       </c>
-      <c r="CF3">
+      <c r="DP3">
         <v>0.01833611427440824</v>
       </c>
-      <c r="CG3">
+      <c r="DQ3">
         <v>0.02463063920857286</v>
       </c>
-      <c r="CH3">
+      <c r="DR3">
         <v>0.04991437409261638</v>
       </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1521,34 +1941,34 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.05029070268790976</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.07055768862389691</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.07594744993703653</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.07109804690416509</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.04502634164412594</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02782524196846695</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01405459093474472</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.008782277077696575</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.005930996374347813</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0009529144289186775</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1560,37 +1980,37 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.004281130870915778</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02574061457609876</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.04601998563694817</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.06734975469798321</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.08777214613902856</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.08809882405015526</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.09340463196005716</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.08411028928975921</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.05938259890988359</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.03134223263851669</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.008779426879547487</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1605,16 +2025,16 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.001798632222472894</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.006998367065117155</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01080883977993097</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01364627470227609</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1671,100 +2091,100 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.2353726106009148</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.09792677683898601</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.04078222111046718</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002627867866654481</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.1294667988669389</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0001079763802686579</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0003973070717128151</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01311527494013454</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01111509884796463</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>7.606852286582775E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.161803474175808</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.03893985505220816</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001800144295328848</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.001607670500480714</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006768299920237721</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.02955362126992487</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.02542291998626725</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.06813773559362293</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001737015795079958</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001283902613542187</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003304215673478588</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01421668566182647</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.003424848554280053</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.003792290071012146</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.005472094817698766</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.005891110409382993</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01713892490086535</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01103012007276535</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.02742936288537778</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01506528989919582</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.00059005171679281</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.02467082675849476</v>
+        <v>0</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -1772,10 +2192,115 @@
       <c r="CI4">
         <v>0</v>
       </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1928,106 +2453,106 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.1321731473286782</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.1035578312967189</v>
       </c>
       <c r="BB5">
-        <v>0.2579346693242396</v>
+        <v>0.03393387393765086</v>
       </c>
       <c r="BC5">
-        <v>0.09768966556717905</v>
+        <v>0.01421123514565599</v>
       </c>
       <c r="BD5">
-        <v>0.06723512817381928</v>
+        <v>0.005270104341829502</v>
       </c>
       <c r="BE5">
-        <v>0.001814835495625145</v>
+        <v>0.0004974254883512739</v>
       </c>
       <c r="BF5">
-        <v>0.08162030576285761</v>
+        <v>0.004506719196063784</v>
       </c>
       <c r="BG5">
-        <v>0.0005619384478226569</v>
+        <v>0.01288458263925619</v>
       </c>
       <c r="BH5">
-        <v>0.0449837788062678</v>
+        <v>0.02800975286891803</v>
       </c>
       <c r="BI5">
-        <v>0.0003190044009269333</v>
+        <v>0.03362605030981385</v>
       </c>
       <c r="BJ5">
-        <v>0.007932427479286651</v>
+        <v>0.03362605030981385</v>
       </c>
       <c r="BK5">
-        <v>0.004950418486721776</v>
+        <v>0.01965561404889487</v>
       </c>
       <c r="BL5">
-        <v>0.03788049134279097</v>
+        <v>0.01002138467504396</v>
       </c>
       <c r="BM5">
-        <v>0.02737067859245964</v>
+        <v>0.01659240673065458</v>
       </c>
       <c r="BN5">
-        <v>0.00228720910842952</v>
+        <v>0.02909198530089531</v>
       </c>
       <c r="BO5">
-        <v>0.08115796682578116</v>
+        <v>0.02978391486087098</v>
       </c>
       <c r="BP5">
-        <v>0.03670855886852467</v>
+        <v>0.03011234653599734</v>
       </c>
       <c r="BQ5">
-        <v>0.01236206654531758</v>
+        <v>0.02269136579336141</v>
       </c>
       <c r="BR5">
-        <v>0.09615460200886444</v>
+        <v>0.03705908645724346</v>
       </c>
       <c r="BS5">
-        <v>0.005549640964226001</v>
+        <v>0.04893475757217444</v>
       </c>
       <c r="BT5">
-        <v>0.003762890371986312</v>
+        <v>0.0296612189295635</v>
       </c>
       <c r="BU5">
-        <v>0.0128769835266125</v>
+        <v>0.0237029840035363</v>
       </c>
       <c r="BV5">
-        <v>0.0004629695485763428</v>
+        <v>0.01243087519090516</v>
       </c>
       <c r="BW5">
-        <v>0.03116770540423295</v>
+        <v>0.003322711591279351</v>
       </c>
       <c r="BX5">
-        <v>0.0002978135421446336</v>
+        <v>0.0002304040551577711</v>
       </c>
       <c r="BY5">
-        <v>0.004661075431485659</v>
+        <v>0.002217789746291513</v>
       </c>
       <c r="BZ5">
-        <v>1.285593605738817E-05</v>
+        <v>0.006894568193466359</v>
       </c>
       <c r="CA5">
-        <v>0.002678644016168069</v>
+        <v>0.02481358651312316</v>
       </c>
       <c r="CB5">
-        <v>0.01663927008484601</v>
+        <v>0.06246190088536051</v>
       </c>
       <c r="CC5">
-        <v>6.847476169831461E-05</v>
+        <v>0.05953262439286724</v>
       </c>
       <c r="CD5">
-        <v>0.001610857225607184</v>
+        <v>0.07333258445439385</v>
       </c>
       <c r="CE5">
-        <v>0.0001757604152292403</v>
+        <v>0.05515911720616855</v>
       </c>
       <c r="CF5">
-        <v>0.009562674474128098</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.05150863906008694</v>
+        <v>0</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -2035,10 +2560,115 @@
       <c r="CI5">
         <v>0</v>
       </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2197,111 +2827,216 @@
         <v>0</v>
       </c>
       <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
         <v>0.1394448729028393</v>
       </c>
-      <c r="BC6">
+      <c r="CM6">
         <v>0.02672010783026495</v>
       </c>
-      <c r="BD6">
+      <c r="CN6">
         <v>0.3668766639039282</v>
       </c>
-      <c r="BE6">
+      <c r="CO6">
         <v>7.973577157212497E-05</v>
       </c>
-      <c r="BF6">
+      <c r="CP6">
         <v>0.01832409625976663</v>
       </c>
-      <c r="BG6">
+      <c r="CQ6">
         <v>0.04380827709896115</v>
       </c>
-      <c r="BH6">
+      <c r="CR6">
         <v>0.0008891271449983351</v>
       </c>
-      <c r="BI6">
+      <c r="CS6">
         <v>0.004952284250725096</v>
       </c>
-      <c r="BJ6">
+      <c r="CT6">
         <v>0.001692216317525234</v>
       </c>
-      <c r="BK6">
+      <c r="CU6">
         <v>0.001719349739169872</v>
       </c>
-      <c r="BL6">
+      <c r="CV6">
         <v>0.01485833621027974</v>
       </c>
-      <c r="BM6">
+      <c r="CW6">
         <v>0.04285039341828895</v>
       </c>
-      <c r="BN6">
+      <c r="CX6">
         <v>0.03476350410137999</v>
       </c>
-      <c r="BO6">
+      <c r="CY6">
         <v>0.00612207196355704</v>
       </c>
-      <c r="BP6">
+      <c r="CZ6">
         <v>0.008143388478910914</v>
       </c>
-      <c r="BQ6">
+      <c r="DA6">
         <v>0.005862383436362331</v>
       </c>
-      <c r="BR6">
+      <c r="DB6">
         <v>0.02203873486165559</v>
       </c>
-      <c r="BS6">
+      <c r="DC6">
         <v>0.04596392213892391</v>
       </c>
-      <c r="BT6">
+      <c r="DD6">
         <v>0.009158571850552594</v>
       </c>
-      <c r="BU6">
+      <c r="DE6">
         <v>0.0004824815007803561</v>
       </c>
-      <c r="BV6">
+      <c r="DF6">
         <v>0.06566662846137357</v>
       </c>
-      <c r="BW6">
+      <c r="DG6">
         <v>6.163710096359811E-07</v>
       </c>
-      <c r="BX6">
+      <c r="DH6">
         <v>0.04069552293142753</v>
       </c>
-      <c r="BY6">
+      <c r="DI6">
         <v>0.002029007733192447</v>
       </c>
-      <c r="BZ6">
+      <c r="DJ6">
         <v>0.008033969156981371</v>
       </c>
-      <c r="CA6">
+      <c r="DK6">
         <v>0.01409464267402628</v>
       </c>
-      <c r="CB6">
+      <c r="DL6">
         <v>0.03195497809809876</v>
       </c>
-      <c r="CC6">
+      <c r="DM6">
         <v>0.0002080155512540145</v>
       </c>
-      <c r="CD6">
+      <c r="DN6">
         <v>0.01251830974912086</v>
       </c>
-      <c r="CE6">
+      <c r="DO6">
         <v>0.003647736577761053</v>
       </c>
-      <c r="CF6">
+      <c r="DP6">
         <v>0.01462922670892385</v>
       </c>
-      <c r="CG6">
+      <c r="DQ6">
         <v>0.01177082680638796</v>
       </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
+      <c r="DR6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:122">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2460,111 +3195,216 @@
         <v>0</v>
       </c>
       <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
         <v>0.1428117980397744</v>
       </c>
-      <c r="BC7">
+      <c r="CM7">
         <v>0.004447352966812587</v>
       </c>
-      <c r="BD7">
+      <c r="CN7">
         <v>0.2394725765193774</v>
       </c>
-      <c r="BE7">
+      <c r="CO7">
         <v>0.004631925931183804</v>
       </c>
-      <c r="BF7">
+      <c r="CP7">
         <v>6.656556140963629E-06</v>
       </c>
-      <c r="BG7">
+      <c r="CQ7">
         <v>0.06529790392915479</v>
       </c>
-      <c r="BH7">
+      <c r="CR7">
         <v>0.01252669223613497</v>
       </c>
-      <c r="BI7">
+      <c r="CS7">
         <v>0.01776777308614867</v>
       </c>
-      <c r="BJ7">
+      <c r="CT7">
         <v>0.00356040400876691</v>
       </c>
-      <c r="BK7">
+      <c r="CU7">
         <v>0.05511630586865032</v>
       </c>
-      <c r="BL7">
+      <c r="CV7">
         <v>0.02530897052959554</v>
       </c>
-      <c r="BM7">
+      <c r="CW7">
         <v>0.05989494650597239</v>
       </c>
-      <c r="BN7">
+      <c r="CX7">
         <v>0.0121169356482865</v>
       </c>
-      <c r="BO7">
+      <c r="CY7">
         <v>0.04668750110813826</v>
       </c>
-      <c r="BP7">
+      <c r="CZ7">
         <v>0.002534407690987758</v>
       </c>
-      <c r="BQ7">
+      <c r="DA7">
         <v>0.1015915685532379</v>
       </c>
-      <c r="BR7">
+      <c r="DB7">
         <v>0.02106910445398188</v>
       </c>
-      <c r="BS7">
+      <c r="DC7">
         <v>0.0468483310525718</v>
       </c>
-      <c r="BT7">
+      <c r="DD7">
         <v>0.001416684731504563</v>
       </c>
-      <c r="BU7">
+      <c r="DE7">
         <v>0.00125696335593792</v>
       </c>
-      <c r="BV7">
+      <c r="DF7">
         <v>0.0179669538815049</v>
       </c>
-      <c r="BW7">
+      <c r="DG7">
         <v>0.006248753974747751</v>
       </c>
-      <c r="BX7">
+      <c r="DH7">
         <v>0.01403421307287795</v>
       </c>
-      <c r="BY7">
+      <c r="DI7">
         <v>0.002882576596642171</v>
       </c>
-      <c r="BZ7">
+      <c r="DJ7">
         <v>0.006594605550779466</v>
       </c>
-      <c r="CA7">
+      <c r="DK7">
         <v>0.0002432484772797732</v>
       </c>
-      <c r="CB7">
+      <c r="DL7">
         <v>0.0237854603014787</v>
       </c>
-      <c r="CC7">
+      <c r="DM7">
         <v>0.01559458094764406</v>
       </c>
-      <c r="CD7">
+      <c r="DN7">
         <v>9.826924525903468E-05</v>
       </c>
-      <c r="CE7">
+      <c r="DO7">
         <v>0.01760591899863355</v>
       </c>
-      <c r="CF7">
+      <c r="DP7">
         <v>0.005356761693776175</v>
       </c>
-      <c r="CG7">
+      <c r="DQ7">
         <v>0.02522385448701702</v>
       </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
+      <c r="DR7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:122">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2597,100 +3437,100 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1004847377005469</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1354965611806516</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1133801854404594</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.0518561941286302</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.00136672394781769</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.01724024254821714</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.01550337078843888</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.01559489946676071</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.0001994656557077908</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.0002639438937912262</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.01733675538781174</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.002519459608123827</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.01668720796593463</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.02168371694540689</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.02179193746075571</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.008282923307915413</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.007582599743071965</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.005442636491976862</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.004401313368478003</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.02950297504229145</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.05333498563496168</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.04780741150762255</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.02604881094125015</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.03726850775061012</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.05621214269886159</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.02667446989904068</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.006490526205425622</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.01080507370395845</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.048244129502011</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.07261206394924957</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.02712168142409514</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.000762346710125541</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2723,100 +3563,100 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0.1922585216915388</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>9.416802983482351E-05</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>0.1670422218967744</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>0.005665977710323012</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>0.000257815864618365</v>
+        <v>0</v>
       </c>
       <c r="BG8">
-        <v>0.05209475787443024</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>0.007149569619548089</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.0210940901173126</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0.0013064425301269</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>0.06124918220417499</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>0.04942382080723991</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0.07285904736289166</v>
+        <v>0</v>
       </c>
       <c r="BN8">
-        <v>0.008774163087118807</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0.04442082309588523</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.0006222373506911622</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.07674192118153453</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.04440301228832187</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0.0740490438454887</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.001662759412185314</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.01211413402371544</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>0.02575730307450149</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>0.002960863838309987</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>0.002031759353270557</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>0.002118843126879831</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>0.005560447422639571</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.0007848601719959876</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.02031124899630287</v>
+        <v>0</v>
       </c>
       <c r="CC8">
-        <v>0.008336082871476341</v>
+        <v>0</v>
       </c>
       <c r="CD8">
-        <v>1.37161926100735E-05</v>
+        <v>0</v>
       </c>
       <c r="CE8">
-        <v>0.00888762905678778</v>
+        <v>0</v>
       </c>
       <c r="CF8">
-        <v>0.0002528641544153399</v>
+        <v>0</v>
       </c>
       <c r="CG8">
-        <v>0.02970067174705522</v>
+        <v>0</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -2824,10 +3664,115 @@
       <c r="CI8">
         <v>0</v>
       </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:122">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2836,25 +3781,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1247528329055421</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02114786640353796</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3942698543142217</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.03966089303042671</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06133128115030386</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04088179723589452</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2863,31 +3808,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.04989129921299124</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.01337850176628921</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.07486531846906203</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.007490710628356743</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.04761190623716044</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.07235060943978824</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2902,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.03542447299196487</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2914,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.01001489389134496</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.006927762323115544</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2944,100 +3889,100 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.09712413293667639</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.03049934498459864</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.2704412528305526</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.04240443520383801</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.0005946846133978376</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.05633991592520007</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.04318955667576591</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>0.01147079940189314</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>5.716503174144091E-05</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>0.04898325729692563</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>0.02550313400209659</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>0.06504318949346406</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>0.01689987999420814</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>0.02171689817465405</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>0.003329852638543615</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.04751745812916811</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>0.01127601700162883</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>0.06342606667113972</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>0.000645671681786912</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>6.311879294872445E-06</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>0.01594050999139664</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>0.002492082001009028</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>0.03968013929150843</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>0.001121626346253323</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.003795887349315799</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>0.002949033922547888</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>0.02334011355058413</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>0.02135488549581253</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.0001656391335647106</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>0.009755934862063458</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.01193695755302689</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>0.01099816593634259</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -3087,10 +4032,115 @@
       <c r="CI9">
         <v>0</v>
       </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:122">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3147,100 +4197,100 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.1034001278107449</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.1029913161242803</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.05451903008357113</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.03582286908652114</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.06399094169933128</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.03669524418631355</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.0005144893413915578</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.007583233621664308</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.0260920918443282</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.02719297387947725</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.009104493832085366</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.01562651525822389</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.03730895116365771</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.02254215350095823</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.01473287958758722</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.01965995198041983</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.038099704507596</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.03294613989254179</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.01573807482330061</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.008935284665088094</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.006639349573751119</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.01812103500002557</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.03568017288890945</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.03148435166796867</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.001750573548509413</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.01183213252914511</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.0443463846801532</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.03616087947560435</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.0359192794922583</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.04453417733341802</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.04118872116123944</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>0.01884647575993502</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -3255,105 +4305,210 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.1791479578129374</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>2.191657926187443E-05</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>0.2547203352850745</v>
+        <v>0</v>
       </c>
       <c r="BG10">
-        <v>0.0234740673171899</v>
+        <v>0</v>
       </c>
       <c r="BH10">
-        <v>0.003637522933016657</v>
+        <v>0</v>
       </c>
       <c r="BI10">
-        <v>0.08120982516458884</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0.03382928153161896</v>
+        <v>0</v>
       </c>
       <c r="BK10">
-        <v>0.001379353300803064</v>
+        <v>0</v>
       </c>
       <c r="BL10">
-        <v>0.0006825648674032725</v>
+        <v>0</v>
       </c>
       <c r="BM10">
-        <v>0.04941414112442531</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.0287676069377664</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>0.05131824429107449</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0.006438828957378661</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
-        <v>0.02465619697703412</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.0001151313361388809</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0.05625427981013609</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>0.03076387111069785</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>0.04611767170538305</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>0.00103306592374087</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>0.001069145132729956</v>
+        <v>0</v>
       </c>
       <c r="BX10">
-        <v>0.02035201944617591</v>
+        <v>0</v>
       </c>
       <c r="BY10">
-        <v>0.006205778206817007</v>
+        <v>0</v>
       </c>
       <c r="BZ10">
-        <v>0.03125246131677548</v>
+        <v>0</v>
       </c>
       <c r="CA10">
-        <v>0.004271326288995658</v>
+        <v>0</v>
       </c>
       <c r="CB10">
-        <v>0.001171353716441903</v>
+        <v>0</v>
       </c>
       <c r="CC10">
-        <v>0.0003036371846430655</v>
+        <v>0</v>
       </c>
       <c r="CD10">
-        <v>0.01712810350051444</v>
+        <v>0</v>
       </c>
       <c r="CE10">
-        <v>0.002492964598255529</v>
+        <v>0</v>
       </c>
       <c r="CF10">
-        <v>0.004356437586620804</v>
+        <v>0</v>
       </c>
       <c r="CG10">
-        <v>0.0111166390193193</v>
+        <v>0</v>
       </c>
       <c r="CH10">
-        <v>0.008424062958389357</v>
+        <v>0</v>
       </c>
       <c r="CI10">
-        <v>0.01887420807865143</v>
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:122">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3428,189 +4583,294 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.1427711632491209</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.1281100030449617</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.08137792817684876</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.01725046169564116</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.0005911814830867792</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.004322392878945269</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.003631634970079026</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.0005743773061922951</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.003262508411366303</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.005387869963766657</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.01891482432373465</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.004085462342973631</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.006031972354641692</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>3.856898274207349E-06</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.02215059212384136</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.03014725242944346</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.02044924181315004</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.003018736540298653</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.01949360451414357</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.09464413422354166</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.07368248537048372</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>0.02963996481189729</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.001748590494193133</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.002421851627468707</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.01014540518778072</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1.246192118327876E-05</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>0.03375422483114988</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.07235917762357606</v>
       </c>
       <c r="BB11">
-        <v>0.04297266184391477</v>
+        <v>0.09727807414934318</v>
       </c>
       <c r="BC11">
-        <v>0.1899347042990143</v>
+        <v>0.05362963887597322</v>
       </c>
       <c r="BD11">
-        <v>0.2197718886835035</v>
+        <v>0.008594578892575947</v>
       </c>
       <c r="BE11">
-        <v>0.05734957748747128</v>
+        <v>0.01051434747032294</v>
       </c>
       <c r="BF11">
-        <v>0.0001252373694993768</v>
+        <v>0</v>
       </c>
       <c r="BG11">
-        <v>0.03289368449650308</v>
+        <v>0</v>
       </c>
       <c r="BH11">
-        <v>0.03641759618527864</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.003183073237962642</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.01770047949833351</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.01750320581894922</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.01209906862904581</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>0.06423120391218622</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.01807385546193923</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.002194429766518939</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.005375992041229917</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0.005416427805129327</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.0009698921788621318</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0.1273664029173632</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.005526098583661543</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.0009269068927233933</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.03764973436383122</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>0.01788205222693362</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>0.0323955263709061</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>0.01892820029930367</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>0.0009858909399379006</v>
+        <v>0</v>
       </c>
       <c r="CA11">
-        <v>0.002184490416823865</v>
+        <v>0</v>
       </c>
       <c r="CB11">
-        <v>0.004590437228989843</v>
+        <v>0</v>
       </c>
       <c r="CC11">
-        <v>0.01225262878032684</v>
+        <v>0</v>
       </c>
       <c r="CD11">
-        <v>0.0003429674467107031</v>
+        <v>0</v>
       </c>
       <c r="CE11">
-        <v>0.0003485308661317049</v>
+        <v>0</v>
       </c>
       <c r="CF11">
-        <v>0.01043138902732898</v>
+        <v>0</v>
       </c>
       <c r="CG11">
-        <v>0.001975764923685054</v>
+        <v>0</v>
       </c>
       <c r="CH11">
         <v>0</v>
       </c>
       <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
         <v>0</v>
       </c>
     </row>
@@ -3621,15 +4881,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:DR11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3889,10 +5149,115 @@
       <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3925,237 +5290,342 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05987577374909726</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1167654807534889</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1726432154359346</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2220697271880569</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2570988849282105</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.2752251743101795</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.2888520699968875</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2964410376020663</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.297316025179568</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.2974128821526195</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.2994959680815589</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.3090285559098413</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.3293321181562258</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.3614240350691749</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.4037688311737198</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.4639965663834627</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.5202648722403002</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.5803358236630559</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.6327793062637406</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.6739484432928546</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.6971090823576702</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.710383568596723</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.7152444592261243</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.7152975232500641</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.7164718317729909</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.7195488314808631</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.7347353420258904</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.7648825519972482</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.8135539723118409</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.8652321554376706</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.9268409855990399</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.05276390914527462</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.1853953166906246</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.3898231412098426</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.3938994667257805</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0.4037526504553685</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.4661250556469411</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.470111798175185</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.5248231552386514</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.5342998291897714</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.53436190566412</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.5503694140677314</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.584815779873789</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.625723151721812</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.6639381274310453</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.7035585584049772</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.7973426956178327</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.8278734240440369</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9155949148586254</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9159140966449932</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.9167831182948712</v>
+        <v>1</v>
       </c>
       <c r="BX2">
-        <v>0.9348664804576339</v>
+        <v>1</v>
       </c>
       <c r="BY2">
-        <v>0.9402866270446552</v>
+        <v>1</v>
       </c>
       <c r="BZ2">
-        <v>0.9533346069666947</v>
+        <v>1</v>
       </c>
       <c r="CA2">
-        <v>0.9547215814290123</v>
+        <v>1</v>
       </c>
       <c r="CB2">
-        <v>0.9566663047755281</v>
+        <v>1</v>
       </c>
       <c r="CC2">
-        <v>0.9567646596974803</v>
+        <v>1</v>
       </c>
       <c r="CD2">
-        <v>0.9646067736566366</v>
+        <v>1</v>
       </c>
       <c r="CE2">
-        <v>0.9711508933727432</v>
+        <v>1</v>
       </c>
       <c r="CF2">
-        <v>0.9711590419813528</v>
+        <v>1</v>
       </c>
       <c r="CG2">
-        <v>0.9744515554632363</v>
+        <v>1</v>
       </c>
       <c r="CH2">
-        <v>0.9747538530013869</v>
+        <v>1</v>
       </c>
       <c r="CI2">
         <v>1</v>
       </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4317,108 +5787,213 @@
         <v>0</v>
       </c>
       <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
         <v>0.009690839874556101</v>
       </c>
-      <c r="BD3">
+      <c r="CN3">
         <v>0.0163494568902812</v>
       </c>
-      <c r="BE3">
+      <c r="CO3">
         <v>0.02896464305824002</v>
       </c>
-      <c r="BF3">
+      <c r="CP3">
         <v>0.1484251625692081</v>
       </c>
-      <c r="BG3">
+      <c r="CQ3">
         <v>0.1539973019805888</v>
       </c>
-      <c r="BH3">
+      <c r="CR3">
         <v>0.2196712888747901</v>
       </c>
-      <c r="BI3">
+      <c r="CS3">
         <v>0.2211212161088759</v>
       </c>
-      <c r="BJ3">
+      <c r="CT3">
         <v>0.4133178270827416</v>
       </c>
-      <c r="BK3">
+      <c r="CU3">
         <v>0.4459490435211777</v>
       </c>
-      <c r="BL3">
+      <c r="CV3">
         <v>0.4539357885133608</v>
       </c>
-      <c r="BM3">
+      <c r="CW3">
         <v>0.4552446904098215</v>
       </c>
-      <c r="BN3">
+      <c r="CX3">
         <v>0.4577999637238915</v>
       </c>
-      <c r="BO3">
+      <c r="CY3">
         <v>0.4588610531043363</v>
       </c>
-      <c r="BP3">
+      <c r="CZ3">
         <v>0.5371283372964714</v>
       </c>
-      <c r="BQ3">
+      <c r="DA3">
         <v>0.69265564685224</v>
       </c>
-      <c r="BR3">
+      <c r="DB3">
         <v>0.6979900835851732</v>
       </c>
-      <c r="BS3">
+      <c r="DC3">
         <v>0.7239291979808438</v>
       </c>
-      <c r="BT3">
+      <c r="DD3">
         <v>0.7481067920773402</v>
       </c>
-      <c r="BU3">
+      <c r="DE3">
         <v>0.8513975100146242</v>
       </c>
-      <c r="BV3">
+      <c r="DF3">
         <v>0.8540191881824865</v>
       </c>
-      <c r="BW3">
+      <c r="DG3">
         <v>0.8606882201090968</v>
       </c>
-      <c r="BX3">
+      <c r="DH3">
         <v>0.8612662930028553</v>
       </c>
-      <c r="BY3">
+      <c r="DI3">
         <v>0.865948520907888</v>
       </c>
-      <c r="BZ3">
+      <c r="DJ3">
         <v>0.8659950150589556</v>
       </c>
-      <c r="CA3">
+      <c r="DK3">
         <v>0.8855563509674089</v>
       </c>
-      <c r="CB3">
+      <c r="DL3">
         <v>0.8856255372583433</v>
       </c>
-      <c r="CC3">
+      <c r="DM3">
         <v>0.8921804484485434</v>
       </c>
-      <c r="CD3">
+      <c r="DN3">
         <v>0.9008449559512592</v>
       </c>
-      <c r="CE3">
+      <c r="DO3">
         <v>0.9071188724244026</v>
       </c>
-      <c r="CF3">
+      <c r="DP3">
         <v>0.9254549866988109</v>
       </c>
-      <c r="CG3">
+      <c r="DQ3">
         <v>0.9500856259073838</v>
       </c>
-      <c r="CH3">
-        <v>1</v>
-      </c>
-      <c r="CI3">
+      <c r="DR3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4427,261 +6002,366 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.05029070268790976</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1208483913118067</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.1967958412488432</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2678938881530083</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3129202297971342</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3407454717656012</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3548000627003459</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3635823397780425</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3695133361523903</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.370466250581309</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.370466250581309</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.370466250581309</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.370466250581309</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.3747473814522247</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.4004879960283235</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.4465079816652717</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.5138577363632548</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.6016298825022834</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.6897287065524387</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.7831333385124959</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.8672436278022551</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.9266262267121387</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9579684593506553</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.9667478862302028</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.9667478862302028</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.9667478862302028</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.9667478862302028</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.9667478862302028</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.9685465184526757</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.9755448855177928</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.9863537252977238</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB4">
-        <v>0.2353726106009148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC4">
-        <v>0.3332993874399008</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD4">
-        <v>0.374081608550368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE4">
-        <v>0.3767094764170225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF4">
-        <v>0.5061762752839614</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG4">
-        <v>0.50628425166423</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH4">
-        <v>0.5066815587359428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI4">
-        <v>0.5197968336760773</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ4">
-        <v>0.5309119325240419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK4">
-        <v>0.5309195393763285</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL4">
-        <v>0.6927230135521365</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM4">
-        <v>0.7316628686043447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN4">
-        <v>0.7334630128996735</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO4">
-        <v>0.7350706834001542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP4">
-        <v>0.741838983320392</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ4">
-        <v>0.7713926045903169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR4">
-        <v>0.7968155245765841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS4">
-        <v>0.864953260170207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT4">
-        <v>0.866690275965287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU4">
-        <v>0.8679741785788292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV4">
-        <v>0.8712783942523078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW4">
-        <v>0.8854950799141342</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX4">
-        <v>0.8889199284684143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY4">
-        <v>0.8927122185394264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ4">
-        <v>0.8981843133571251</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA4">
-        <v>0.9040754237665081</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB4">
-        <v>0.9212143486673734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC4">
-        <v>0.9322444687401388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD4">
-        <v>0.9596738316255166</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE4">
-        <v>0.9747391215247124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF4">
-        <v>0.9753291732415053</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DO4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DP4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DQ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR4">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4834,103 +6514,103 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.1321731473286782</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.2357309786253971</v>
       </c>
       <c r="BB5">
-        <v>0.2579346693242396</v>
+        <v>0.269664852563048</v>
       </c>
       <c r="BC5">
-        <v>0.3556243348914186</v>
+        <v>0.283876087708704</v>
       </c>
       <c r="BD5">
-        <v>0.4228594630652379</v>
+        <v>0.2891461920505335</v>
       </c>
       <c r="BE5">
-        <v>0.4246742985608631</v>
+        <v>0.2896436175388848</v>
       </c>
       <c r="BF5">
-        <v>0.5062946043237206</v>
+        <v>0.2941503367349486</v>
       </c>
       <c r="BG5">
-        <v>0.5068565427715434</v>
+        <v>0.3070349193742047</v>
       </c>
       <c r="BH5">
-        <v>0.5518403215778112</v>
+        <v>0.3350446722431228</v>
       </c>
       <c r="BI5">
-        <v>0.5521593259787381</v>
+        <v>0.3686707225529366</v>
       </c>
       <c r="BJ5">
-        <v>0.5600917534580248</v>
+        <v>0.4022967728627505</v>
       </c>
       <c r="BK5">
-        <v>0.5650421719447465</v>
+        <v>0.4219523869116454</v>
       </c>
       <c r="BL5">
-        <v>0.6029226632875374</v>
+        <v>0.4319737715866893</v>
       </c>
       <c r="BM5">
-        <v>0.6302933418799971</v>
+        <v>0.4485661783173439</v>
       </c>
       <c r="BN5">
-        <v>0.6325805509884266</v>
+        <v>0.4776581636182392</v>
       </c>
       <c r="BO5">
-        <v>0.7137385178142077</v>
+        <v>0.5074420784791102</v>
       </c>
       <c r="BP5">
-        <v>0.7504470766827324</v>
+        <v>0.5375544250151075</v>
       </c>
       <c r="BQ5">
-        <v>0.7628091432280499</v>
+        <v>0.5602457908084689</v>
       </c>
       <c r="BR5">
-        <v>0.8589637452369143</v>
+        <v>0.5973048772657124</v>
       </c>
       <c r="BS5">
-        <v>0.8645133862011404</v>
+        <v>0.6462396348378868</v>
       </c>
       <c r="BT5">
-        <v>0.8682762765731267</v>
+        <v>0.6759008537674503</v>
       </c>
       <c r="BU5">
-        <v>0.8811532600997392</v>
+        <v>0.6996038377709867</v>
       </c>
       <c r="BV5">
-        <v>0.8816162296483155</v>
+        <v>0.7120347129618918</v>
       </c>
       <c r="BW5">
-        <v>0.9127839350525485</v>
+        <v>0.7153574245531712</v>
       </c>
       <c r="BX5">
-        <v>0.9130817485946932</v>
+        <v>0.7155878286083289</v>
       </c>
       <c r="BY5">
-        <v>0.9177428240261788</v>
+        <v>0.7178056183546204</v>
       </c>
       <c r="BZ5">
-        <v>0.9177556799622362</v>
+        <v>0.7247001865480868</v>
       </c>
       <c r="CA5">
-        <v>0.9204343239784042</v>
+        <v>0.7495137730612099</v>
       </c>
       <c r="CB5">
-        <v>0.9370735940632502</v>
+        <v>0.8119756739465704</v>
       </c>
       <c r="CC5">
-        <v>0.9371420688249485</v>
+        <v>0.8715082983394377</v>
       </c>
       <c r="CD5">
-        <v>0.9387529260505557</v>
+        <v>0.9448408827938315</v>
       </c>
       <c r="CE5">
-        <v>0.938928686465785</v>
+        <v>1</v>
       </c>
       <c r="CF5">
-        <v>0.948491360939913</v>
+        <v>1</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -4941,10 +6621,115 @@
       <c r="CI5">
         <v>1</v>
       </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
+        <v>1</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5103,111 +6888,216 @@
         <v>0</v>
       </c>
       <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
         <v>0.1394448729028393</v>
       </c>
-      <c r="BC6">
+      <c r="CM6">
         <v>0.1661649807331043</v>
       </c>
-      <c r="BD6">
+      <c r="CN6">
         <v>0.5330416446370325</v>
       </c>
-      <c r="BE6">
+      <c r="CO6">
         <v>0.5331213804086047</v>
       </c>
-      <c r="BF6">
+      <c r="CP6">
         <v>0.5514454766683713</v>
       </c>
-      <c r="BG6">
+      <c r="CQ6">
         <v>0.5952537537673325</v>
       </c>
-      <c r="BH6">
+      <c r="CR6">
         <v>0.5961428809123308</v>
       </c>
-      <c r="BI6">
+      <c r="CS6">
         <v>0.6010951651630559</v>
       </c>
-      <c r="BJ6">
+      <c r="CT6">
         <v>0.6027873814805812</v>
       </c>
-      <c r="BK6">
+      <c r="CU6">
         <v>0.6045067312197511</v>
       </c>
-      <c r="BL6">
+      <c r="CV6">
         <v>0.6193650674300308</v>
       </c>
-      <c r="BM6">
+      <c r="CW6">
         <v>0.6622154608483198</v>
       </c>
-      <c r="BN6">
+      <c r="CX6">
         <v>0.6969789649496998</v>
       </c>
-      <c r="BO6">
+      <c r="CY6">
         <v>0.7031010369132569</v>
       </c>
-      <c r="BP6">
+      <c r="CZ6">
         <v>0.7112444253921678</v>
       </c>
-      <c r="BQ6">
+      <c r="DA6">
         <v>0.7171068088285302</v>
       </c>
-      <c r="BR6">
+      <c r="DB6">
         <v>0.7391455436901858</v>
       </c>
-      <c r="BS6">
+      <c r="DC6">
         <v>0.7851094658291097</v>
       </c>
-      <c r="BT6">
+      <c r="DD6">
         <v>0.7942680376796623</v>
       </c>
-      <c r="BU6">
+      <c r="DE6">
         <v>0.7947505191804426</v>
       </c>
-      <c r="BV6">
+      <c r="DF6">
         <v>0.8604171476418162</v>
       </c>
-      <c r="BW6">
+      <c r="DG6">
         <v>0.8604177640128259</v>
       </c>
-      <c r="BX6">
+      <c r="DH6">
         <v>0.9011132869442534</v>
       </c>
-      <c r="BY6">
+      <c r="DI6">
         <v>0.9031422946774459</v>
       </c>
-      <c r="BZ6">
+      <c r="DJ6">
         <v>0.9111762638344273</v>
       </c>
-      <c r="CA6">
+      <c r="DK6">
         <v>0.9252709065084536</v>
       </c>
-      <c r="CB6">
+      <c r="DL6">
         <v>0.9572258846065523</v>
       </c>
-      <c r="CC6">
+      <c r="DM6">
         <v>0.9574339001578064</v>
       </c>
-      <c r="CD6">
+      <c r="DN6">
         <v>0.9699522099069272</v>
       </c>
-      <c r="CE6">
+      <c r="DO6">
         <v>0.9735999464846883</v>
       </c>
-      <c r="CF6">
+      <c r="DP6">
         <v>0.9882291731936121</v>
       </c>
-      <c r="CG6">
-        <v>1</v>
-      </c>
-      <c r="CH6">
-        <v>1</v>
-      </c>
-      <c r="CI6">
+      <c r="DQ6">
+        <v>1</v>
+      </c>
+      <c r="DR6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:122">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5366,111 +7256,216 @@
         <v>0</v>
       </c>
       <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
         <v>0.1428117980397744</v>
       </c>
-      <c r="BC7">
+      <c r="CM7">
         <v>0.147259151006587</v>
       </c>
-      <c r="BD7">
+      <c r="CN7">
         <v>0.3867317275259643</v>
       </c>
-      <c r="BE7">
+      <c r="CO7">
         <v>0.3913636534571481</v>
       </c>
-      <c r="BF7">
+      <c r="CP7">
         <v>0.391370310013289</v>
       </c>
-      <c r="BG7">
+      <c r="CQ7">
         <v>0.4566682139424438</v>
       </c>
-      <c r="BH7">
+      <c r="CR7">
         <v>0.4691949061785788</v>
       </c>
-      <c r="BI7">
+      <c r="CS7">
         <v>0.4869626792647275</v>
       </c>
-      <c r="BJ7">
+      <c r="CT7">
         <v>0.4905230832734944</v>
       </c>
-      <c r="BK7">
+      <c r="CU7">
         <v>0.5456393891421447</v>
       </c>
-      <c r="BL7">
+      <c r="CV7">
         <v>0.5709483596717403</v>
       </c>
-      <c r="BM7">
+      <c r="CW7">
         <v>0.6308433061777127</v>
       </c>
-      <c r="BN7">
+      <c r="CX7">
         <v>0.6429602418259992</v>
       </c>
-      <c r="BO7">
+      <c r="CY7">
         <v>0.6896477429341374</v>
       </c>
-      <c r="BP7">
+      <c r="CZ7">
         <v>0.6921821506251252</v>
       </c>
-      <c r="BQ7">
+      <c r="DA7">
         <v>0.7937737191783631</v>
       </c>
-      <c r="BR7">
+      <c r="DB7">
         <v>0.8148428236323451</v>
       </c>
-      <c r="BS7">
+      <c r="DC7">
         <v>0.8616911546849169</v>
       </c>
-      <c r="BT7">
+      <c r="DD7">
         <v>0.8631078394164214</v>
       </c>
-      <c r="BU7">
+      <c r="DE7">
         <v>0.8643648027723594</v>
       </c>
-      <c r="BV7">
+      <c r="DF7">
         <v>0.8823317566538643</v>
       </c>
-      <c r="BW7">
+      <c r="DG7">
         <v>0.8885805106286121</v>
       </c>
-      <c r="BX7">
+      <c r="DH7">
         <v>0.9026147237014901</v>
       </c>
-      <c r="BY7">
+      <c r="DI7">
         <v>0.9054973002981322</v>
       </c>
-      <c r="BZ7">
+      <c r="DJ7">
         <v>0.9120919058489118</v>
       </c>
-      <c r="CA7">
+      <c r="DK7">
         <v>0.9123351543261915</v>
       </c>
-      <c r="CB7">
+      <c r="DL7">
         <v>0.9361206146276702</v>
       </c>
-      <c r="CC7">
+      <c r="DM7">
         <v>0.9517151955753143</v>
       </c>
-      <c r="CD7">
+      <c r="DN7">
         <v>0.9518134648205733</v>
       </c>
-      <c r="CE7">
+      <c r="DO7">
         <v>0.9694193838192068</v>
       </c>
-      <c r="CF7">
+      <c r="DP7">
         <v>0.974776145512983</v>
       </c>
-      <c r="CG7">
-        <v>1</v>
-      </c>
-      <c r="CH7">
-        <v>1</v>
-      </c>
-      <c r="CI7">
+      <c r="DQ7">
+        <v>1</v>
+      </c>
+      <c r="DR7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:122">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5503,223 +7498,223 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1004847377005469</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2359812988811985</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3493614843216578</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.401217678450288</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4025844023981057</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.4198246449463228</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.4353280157347617</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4509229152015224</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.4511223808572302</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.4513863247510215</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.4687230801388332</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.4712425397469571</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.4879297477128917</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.5096134646582986</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.5314054021190543</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.5396883254269698</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.5472709251700417</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.5527135616620186</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.5571148750304966</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.5866178500727881</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.6399528357077497</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.6877602472153723</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.7138090581566224</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.7510775659072325</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.8072897086060941</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.8339641785051347</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.8404547047105604</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.8512597784145188</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.8995039079165298</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.9721159718657794</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.9992376532898745</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8">
-        <v>0.1922585216915388</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>0.1923526897213737</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0.3593949116181481</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0.3650608893284711</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0.3653187051930895</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.4174134630675197</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0.4245630326870678</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0.4456571228043804</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0.4469635653345073</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0.5082127475386823</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.5576365683459222</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0.6304956157088139</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.6392697787959326</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0.6836906018918179</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0.684312839242509</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.7610547604240435</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.8054577727123654</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.8795068165578541</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.8811695759700394</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0.8932837099937548</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0.9190410130682564</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9220018769065663</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.9240336362598369</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0.9261524793867167</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0.9317129268093564</v>
+        <v>1</v>
       </c>
       <c r="CA8">
-        <v>0.9324977869813523</v>
+        <v>1</v>
       </c>
       <c r="CB8">
-        <v>0.9528090359776552</v>
+        <v>1</v>
       </c>
       <c r="CC8">
-        <v>0.9611451188491316</v>
+        <v>1</v>
       </c>
       <c r="CD8">
-        <v>0.9611588350417416</v>
+        <v>1</v>
       </c>
       <c r="CE8">
-        <v>0.9700464640985293</v>
+        <v>1</v>
       </c>
       <c r="CF8">
-        <v>0.9702993282529447</v>
+        <v>1</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -5730,10 +7725,115 @@
       <c r="CI8">
         <v>1</v>
       </c>
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+      <c r="CK8">
+        <v>1</v>
+      </c>
+      <c r="CL8">
+        <v>1</v>
+      </c>
+      <c r="CM8">
+        <v>1</v>
+      </c>
+      <c r="CN8">
+        <v>1</v>
+      </c>
+      <c r="CO8">
+        <v>1</v>
+      </c>
+      <c r="CP8">
+        <v>1</v>
+      </c>
+      <c r="CQ8">
+        <v>1</v>
+      </c>
+      <c r="CR8">
+        <v>1</v>
+      </c>
+      <c r="CS8">
+        <v>1</v>
+      </c>
+      <c r="CT8">
+        <v>1</v>
+      </c>
+      <c r="CU8">
+        <v>1</v>
+      </c>
+      <c r="CV8">
+        <v>1</v>
+      </c>
+      <c r="CW8">
+        <v>1</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>1</v>
+      </c>
+      <c r="CZ8">
+        <v>1</v>
+      </c>
+      <c r="DA8">
+        <v>1</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+      <c r="DC8">
+        <v>1</v>
+      </c>
+      <c r="DD8">
+        <v>1</v>
+      </c>
+      <c r="DE8">
+        <v>1</v>
+      </c>
+      <c r="DF8">
+        <v>1</v>
+      </c>
+      <c r="DG8">
+        <v>1</v>
+      </c>
+      <c r="DH8">
+        <v>1</v>
+      </c>
+      <c r="DI8">
+        <v>1</v>
+      </c>
+      <c r="DJ8">
+        <v>1</v>
+      </c>
+      <c r="DK8">
+        <v>1</v>
+      </c>
+      <c r="DL8">
+        <v>1</v>
+      </c>
+      <c r="DM8">
+        <v>1</v>
+      </c>
+      <c r="DN8">
+        <v>1</v>
+      </c>
+      <c r="DO8">
+        <v>1</v>
+      </c>
+      <c r="DP8">
+        <v>1</v>
+      </c>
+      <c r="DQ8">
+        <v>1</v>
+      </c>
+      <c r="DR8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:122">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5742,261 +7842,366 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1247528329055421</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1459006993090801</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5401705536233017</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5798314466537284</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.5798314466537284</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6411627278040323</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6820445250399267</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6820445250399267</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6820445250399267</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.731935824252918</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7453143260192072</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8201796444882692</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8201796444882692</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8276703551166259</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.8276703551166259</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.8752822613537863</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.8752822613537863</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9476328707935745</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.9476328707935745</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.9476328707935745</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.9476328707935745</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.9476328707935745</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.9830573437855393</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.9830573437855393</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.9830573437855393</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.9830573437855393</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.9930722376768842</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999998</v>
+        <v>0.09712413293667639</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999998</v>
+        <v>0.127623477921275</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999998</v>
+        <v>0.3980647307518276</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999998</v>
+        <v>0.4404691659556657</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999998</v>
+        <v>0.4410638505690635</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999998</v>
+        <v>0.4974037664942635</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999998</v>
+        <v>0.5405933231700295</v>
       </c>
       <c r="AU9">
-        <v>0.9999999999999998</v>
+        <v>0.5520641225719226</v>
       </c>
       <c r="AV9">
-        <v>0.9999999999999998</v>
+        <v>0.5521212876036641</v>
       </c>
       <c r="AW9">
-        <v>0.9999999999999998</v>
+        <v>0.6011045449005897</v>
       </c>
       <c r="AX9">
-        <v>0.9999999999999998</v>
+        <v>0.6266076789026863</v>
       </c>
       <c r="AY9">
-        <v>0.9999999999999998</v>
+        <v>0.6916508683961504</v>
       </c>
       <c r="AZ9">
-        <v>0.9999999999999998</v>
+        <v>0.7085507483903586</v>
       </c>
       <c r="BA9">
-        <v>0.9999999999999998</v>
+        <v>0.7302676465650126</v>
       </c>
       <c r="BB9">
-        <v>0.9999999999999998</v>
+        <v>0.7335974992035562</v>
       </c>
       <c r="BC9">
-        <v>0.9999999999999998</v>
+        <v>0.7811149573327243</v>
       </c>
       <c r="BD9">
-        <v>0.9999999999999998</v>
+        <v>0.7923909743343531</v>
       </c>
       <c r="BE9">
-        <v>0.9999999999999998</v>
+        <v>0.8558170410054928</v>
       </c>
       <c r="BF9">
-        <v>0.9999999999999998</v>
+        <v>0.8564627126872797</v>
       </c>
       <c r="BG9">
-        <v>0.9999999999999998</v>
+        <v>0.8564690245665746</v>
       </c>
       <c r="BH9">
-        <v>0.9999999999999998</v>
+        <v>0.8724095345579712</v>
       </c>
       <c r="BI9">
-        <v>0.9999999999999998</v>
+        <v>0.8749016165589802</v>
       </c>
       <c r="BJ9">
-        <v>0.9999999999999998</v>
+        <v>0.9145817558504887</v>
       </c>
       <c r="BK9">
-        <v>0.9999999999999998</v>
+        <v>0.9157033821967421</v>
       </c>
       <c r="BL9">
-        <v>0.9999999999999998</v>
+        <v>0.9194992695460579</v>
       </c>
       <c r="BM9">
-        <v>0.9999999999999998</v>
+        <v>0.9224483034686057</v>
       </c>
       <c r="BN9">
-        <v>0.9999999999999998</v>
+        <v>0.9457884170191899</v>
       </c>
       <c r="BO9">
-        <v>0.9999999999999998</v>
+        <v>0.9671433025150025</v>
       </c>
       <c r="BP9">
-        <v>0.9999999999999998</v>
+        <v>0.9673089416485672</v>
       </c>
       <c r="BQ9">
-        <v>0.9999999999999998</v>
+        <v>0.9770648765106307</v>
       </c>
       <c r="BR9">
-        <v>0.9999999999999998</v>
+        <v>0.9890018340636576</v>
       </c>
       <c r="BS9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CE9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CF9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
+        <v>1</v>
+      </c>
+      <c r="CL9">
+        <v>1</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>1</v>
+      </c>
+      <c r="CO9">
+        <v>1</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>1</v>
+      </c>
+      <c r="CR9">
+        <v>1</v>
+      </c>
+      <c r="CS9">
+        <v>1</v>
+      </c>
+      <c r="CT9">
+        <v>1</v>
+      </c>
+      <c r="CU9">
+        <v>1</v>
+      </c>
+      <c r="CV9">
+        <v>1</v>
+      </c>
+      <c r="CW9">
+        <v>1</v>
+      </c>
+      <c r="CX9">
+        <v>1</v>
+      </c>
+      <c r="CY9">
+        <v>1</v>
+      </c>
+      <c r="CZ9">
+        <v>1</v>
+      </c>
+      <c r="DA9">
+        <v>1</v>
+      </c>
+      <c r="DB9">
+        <v>1</v>
+      </c>
+      <c r="DC9">
+        <v>1</v>
+      </c>
+      <c r="DD9">
+        <v>1</v>
+      </c>
+      <c r="DE9">
+        <v>1</v>
+      </c>
+      <c r="DF9">
+        <v>1</v>
+      </c>
+      <c r="DG9">
+        <v>1</v>
+      </c>
+      <c r="DH9">
+        <v>1</v>
+      </c>
+      <c r="DI9">
+        <v>1</v>
+      </c>
+      <c r="DJ9">
+        <v>1</v>
+      </c>
+      <c r="DK9">
+        <v>1</v>
+      </c>
+      <c r="DL9">
+        <v>1</v>
+      </c>
+      <c r="DM9">
+        <v>1</v>
+      </c>
+      <c r="DN9">
+        <v>1</v>
+      </c>
+      <c r="DO9">
+        <v>1</v>
+      </c>
+      <c r="DP9">
+        <v>1</v>
+      </c>
+      <c r="DQ9">
+        <v>1</v>
+      </c>
+      <c r="DR9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:122">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6053,213 +8258,318 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.1034001278107449</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.2063914439350253</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.2609104740185964</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.2967333431051176</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.3607242848044488</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.3974195289907624</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.3979340183321539</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.4055172519538182</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.4316093437981464</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.4588023176776236</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.467906811509709</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.4835333267679329</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.5208422779315907</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.5433844314325489</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.5581173110201361</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.5777772630005559</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.6158769675081519</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.6488231074006937</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.6645611822239943</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.6734964668890824</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.6801358164628335</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.6982568514628591</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.7339370243517686</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.7654213760197373</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.7671719495682466</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.7790040820973917</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.8233504667775449</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.8595113462531492</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.8954306257454074</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.9399648030788255</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.9811535242400649</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD10">
-        <v>0.1791479578129374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE10">
-        <v>0.1791698743921993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF10">
-        <v>0.4338902096772738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG10">
-        <v>0.4573642769944637</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH10">
-        <v>0.4610017999274804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI10">
-        <v>0.5422116250920692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ10">
-        <v>0.5760409066236882</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK10">
-        <v>0.5774202599244913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL10">
-        <v>0.5781028247918946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM10">
-        <v>0.6275169659163199</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN10">
-        <v>0.6562845728540863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO10">
-        <v>0.7076028171451607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP10">
-        <v>0.7140416461025394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ10">
-        <v>0.7386978430795735</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR10">
-        <v>0.7388129744157124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS10">
-        <v>0.7950672542258485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT10">
-        <v>0.8258311253365463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU10">
-        <v>0.8719487970419294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV10">
-        <v>0.8729818629656703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW10">
-        <v>0.8740510080984002</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX10">
-        <v>0.8944030275445761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY10">
-        <v>0.9006088057513931</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ10">
-        <v>0.9318612670681686</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA10">
-        <v>0.9361325933571643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB10">
-        <v>0.9373039470736062</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC10">
-        <v>0.9376075842582493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD10">
-        <v>0.9547356877587637</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE10">
-        <v>0.9572286523570193</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF10">
-        <v>0.9615850899436401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG10">
-        <v>0.9727017289629594</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH10">
-        <v>0.9811257919213487</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DO10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DP10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DQ10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR10">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:122">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6334,190 +8644,295 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.1427711632491209</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.2708811662940827</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.3522590944709314</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.3695095561665726</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.3701007376496593</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.3744231305286046</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.3780547654986836</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.3786291428048759</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.3818916512162422</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.3872795211800089</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.4061943455037436</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.4102798078467172</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.4163117802013589</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.4163156370996331</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.4384662292234744</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.4686134816529179</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.4890627234660679</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.4920814600063666</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.5115750645205102</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.6062191987440518</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.6799016841145356</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>0.7095416489264328</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.711290239420626</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.7137120910480946</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.7238574962358754</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>0.7238699581570587</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>0.7576241829882085</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>0.8299833606117846</v>
       </c>
       <c r="BB11">
-        <v>0.04297266184391477</v>
+        <v>0.9272614347611278</v>
       </c>
       <c r="BC11">
-        <v>0.2329073661429291</v>
+        <v>0.980891073637101</v>
       </c>
       <c r="BD11">
-        <v>0.4526792548264326</v>
+        <v>0.989485652529677</v>
       </c>
       <c r="BE11">
-        <v>0.5100288323139039</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.5101540696834034</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.5430477541799065</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.5794653503651851</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.5826484236031477</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.6003489031014813</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.6178521089204305</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.6299511775494764</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.6941823814616626</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.7122562369236017</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.7144506666901207</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.7198266587313507</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.72524308653648</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.7262129787153421</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.8535793816327053</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.8591054802163669</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.8600323871090902</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.8976821214729215</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9155641736998551</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9479597000707612</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9668879003700649</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9678737913100028</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0.9700582817268267</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9746487189558166</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0.9869013477361435</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0.9872443151828542</v>
+        <v>1</v>
       </c>
       <c r="CE11">
-        <v>0.9875928460489859</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>0.9980242350763149</v>
+        <v>1</v>
       </c>
       <c r="CG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="CJ11">
+        <v>1</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
+        <v>1</v>
+      </c>
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CN11">
+        <v>1</v>
+      </c>
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
+        <v>1</v>
+      </c>
+      <c r="CT11">
+        <v>1</v>
+      </c>
+      <c r="CU11">
+        <v>1</v>
+      </c>
+      <c r="CV11">
+        <v>1</v>
+      </c>
+      <c r="CW11">
+        <v>1</v>
+      </c>
+      <c r="CX11">
+        <v>1</v>
+      </c>
+      <c r="CY11">
+        <v>1</v>
+      </c>
+      <c r="CZ11">
+        <v>1</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <v>1</v>
+      </c>
+      <c r="DC11">
+        <v>1</v>
+      </c>
+      <c r="DD11">
+        <v>1</v>
+      </c>
+      <c r="DE11">
+        <v>1</v>
+      </c>
+      <c r="DF11">
+        <v>1</v>
+      </c>
+      <c r="DG11">
+        <v>1</v>
+      </c>
+      <c r="DH11">
+        <v>1</v>
+      </c>
+      <c r="DI11">
+        <v>1</v>
+      </c>
+      <c r="DJ11">
+        <v>1</v>
+      </c>
+      <c r="DK11">
+        <v>1</v>
+      </c>
+      <c r="DL11">
+        <v>1</v>
+      </c>
+      <c r="DM11">
+        <v>1</v>
+      </c>
+      <c r="DN11">
+        <v>1</v>
+      </c>
+      <c r="DO11">
+        <v>1</v>
+      </c>
+      <c r="DP11">
+        <v>1</v>
+      </c>
+      <c r="DQ11">
+        <v>1</v>
+      </c>
+      <c r="DR11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6535,66 +8950,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5248231552386514</v>
+        <v>0.5202648722403002</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -6603,30 +9018,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>0.0163494568902812</v>
@@ -6644,39 +9059,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5061762752839614</v>
+        <v>0.5138577363632548</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -6685,39 +9100,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5062946043237206</v>
+        <v>0.5074420784791102</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -6726,30 +9141,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6767,30 +9182,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6808,39 +9223,39 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5082127475386823</v>
+        <v>0.5096134646582986</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -6849,39 +9264,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5401705536233017</v>
+        <v>0.5405933231700295</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -6890,39 +9305,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5422116250920692</v>
+        <v>0.5208422779315907</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -6931,39 +9346,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5100288323139039</v>
+        <v>0.5115750645205102</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -6972,16 +9387,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6999,66 +9414,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7035585584049772</v>
+        <v>0.710383568596723</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -7067,30 +9482,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0.0163494568902812</v>
@@ -7108,39 +9523,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7316628686043447</v>
+        <v>0.7831333385124959</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -7149,39 +9564,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7137385178142077</v>
+        <v>0.7120347129618918</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7190,30 +9605,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7231,30 +9646,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7272,39 +9687,39 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7610547604240435</v>
+        <v>0.7138090581566224</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -7313,39 +9728,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.731935824252918</v>
+        <v>0.7085507483903586</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -7354,39 +9769,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7076028171451607</v>
+        <v>0.7339370243517686</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -7395,39 +9810,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7122562369236017</v>
+        <v>0.7095416489264328</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -7436,16 +9851,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7463,66 +9878,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8278734240440369</v>
+        <v>0.8135539723118409</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -7531,30 +9946,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0.0163494568902812</v>
@@ -7572,39 +9987,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.864953260170207</v>
+        <v>0.8672436278022551</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -7613,39 +10028,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8589637452369143</v>
+        <v>0.8119756739465704</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7654,30 +10069,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7695,30 +10110,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7736,39 +10151,39 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8054577727123654</v>
+        <v>0.8072897086060941</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -7777,39 +10192,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8201796444882692</v>
+        <v>0.8558170410054928</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -7818,39 +10233,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8258311253365463</v>
+        <v>0.8233504667775449</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -7859,39 +10274,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
         <v>52</v>
       </c>
-      <c r="D11">
-        <v>70</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8535793816327053</v>
+        <v>0.8299833606117846</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -7900,16 +10315,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7927,66 +10342,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9155949148586254</v>
+        <v>0.9268409855990399</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -7995,30 +10410,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E3">
         <v>0.0163494568902812</v>
@@ -8036,39 +10451,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9040754237665081</v>
+        <v>0.9266262267121387</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -8077,39 +10492,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9127839350525485</v>
+        <v>0.9448408827938315</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -8118,30 +10533,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -8159,30 +10574,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -8200,39 +10615,39 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9190410130682564</v>
+        <v>0.9721159718657794</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -8241,39 +10656,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9476328707935745</v>
+        <v>0.9145817558504887</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -8282,39 +10697,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9006088057513931</v>
+        <v>0.9399648030788255</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -8323,39 +10738,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9155641736998551</v>
+        <v>0.9272614347611278</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -8364,16 +10779,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
